--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -670,7 +670,7 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H2" t="n">
         <v>3.15</v>
@@ -682,7 +682,7 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
@@ -715,10 +715,10 @@
         <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -760,16 +760,16 @@
         <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -835,7 +835,7 @@
         <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
         <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1.42</v>
@@ -1222,7 +1222,7 @@
         <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q7" t="n">
         <v>1.27</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>6.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q8" t="n">
         <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
         <v>1.76</v>
@@ -1537,13 +1537,13 @@
         <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>5.8</v>
@@ -2050,7 +2050,7 @@
         <v>1.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>5.3</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
         <v>1.47</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="G20" t="n">
         <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
         <v>5.4</v>
@@ -3112,7 +3112,7 @@
         <v>2.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>1.07</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H21" t="n">
         <v>2.92</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3445,7 +3445,7 @@
         <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
         <v>14.5</v>
@@ -3673,7 +3673,7 @@
         <v>2.28</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
         <v>4.3</v>
@@ -3727,7 +3727,7 @@
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3742,7 +3742,7 @@
         <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3916,7 +3916,7 @@
         <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -670,22 +670,22 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -697,7 +697,7 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
         <v>1.72</v>
@@ -715,10 +715,10 @@
         <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.74</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1510,7 +1510,7 @@
         <v>2.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
         <v>1.79</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
         <v>2.66</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
         <v>1.91</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
         <v>2.26</v>
@@ -1894,7 +1894,7 @@
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>7.2</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q11" t="n">
         <v>1.64</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.16</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,22 +2182,22 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2206,58 +2206,58 @@
         <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2290,16 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>5.3</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
         <v>1.58</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q16" t="n">
         <v>1.39</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K20" t="n">
         <v>980</v>
@@ -3238,13 +3238,13 @@
         <v>2.92</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I21" t="n">
         <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
         <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
         <v>2.9</v>
@@ -3394,7 +3394,7 @@
         <v>2.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
@@ -3412,7 +3412,7 @@
         <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>14.5</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>1.47</v>
       </c>
       <c r="K23" t="n">
         <v>980</v>
@@ -3535,7 +3535,7 @@
         <v>1.07</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.62</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -3661,7 +3661,7 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
@@ -3679,7 +3679,7 @@
         <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3784,7 +3784,7 @@
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.25</v>
@@ -3823,7 +3823,7 @@
         <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X25" t="n">
         <v>8</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -670,19 +670,19 @@
         <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -715,10 +715,10 @@
         <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -949,10 +949,10 @@
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1102,16 +1102,16 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
         <v>1.74</v>
@@ -1120,10 +1120,10 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="J7" t="n">
         <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>8.199999999999999</v>
@@ -1495,7 +1495,7 @@
         <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1525,10 +1525,10 @@
         <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1543,7 +1543,7 @@
         <v>320</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -2020,19 +2020,19 @@
         <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
         <v>2.96</v>
@@ -2182,19 +2182,19 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
         <v>1.97</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U13" t="n">
         <v>2.8</v>
@@ -2296,13 +2296,13 @@
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
         <v>1.39</v>
@@ -2695,16 +2695,16 @@
         <v>1.93</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q17" t="n">
         <v>2.06</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>2.94</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
         <v>2.98</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>3.1</v>
@@ -3376,7 +3376,7 @@
         <v>2.88</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3385,7 +3385,7 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
@@ -3415,10 +3415,10 @@
         <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X22" t="n">
         <v>8.800000000000001</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.47</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.47</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="n">
         <v>980</v>
@@ -3640,10 +3640,10 @@
         <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -3655,7 +3655,7 @@
         <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3673,7 +3673,7 @@
         <v>2.28</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
         <v>4.3</v>
@@ -3685,10 +3685,10 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X24" t="n">
         <v>11</v>
@@ -3793,7 +3793,7 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
         <v>2.5</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
         <v>1.43</v>
@@ -3916,13 +3916,13 @@
         <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -4075,7 +4075,7 @@
         <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
         <v>2.28</v>
@@ -676,13 +676,13 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -706,13 +706,13 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -733,19 +733,19 @@
         <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
         <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
         <v>14</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
         <v>1.74</v>
@@ -811,13 +811,13 @@
         <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1.93</v>
@@ -1090,7 +1090,7 @@
         <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,28 +1099,28 @@
         <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
@@ -1222,7 +1222,7 @@
         <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
         <v>1.69</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q8" t="n">
         <v>1.41</v>
@@ -1522,10 +1522,10 @@
         <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
         <v>3.5</v>
@@ -1582,7 +1582,7 @@
         <v>4.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2026,7 +2026,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.37</v>
@@ -2164,22 +2164,22 @@
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
         <v>2.8</v>
@@ -2188,16 +2188,16 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2290,16 +2290,16 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>5.1</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>1.51</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J17" t="n">
         <v>5.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.53</v>
+        <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.07</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="Q19" t="n">
         <v>1.01</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I22" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.27</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.05</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.18</v>
-      </c>
       <c r="K23" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>1.27</v>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.07</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="n">
         <v>32</v>
       </c>
-      <c r="AI25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>34</v>
-      </c>
       <c r="AL25" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>2.16</v>
       </c>
       <c r="G26" t="n">
-        <v>1.43</v>
+        <v>2.18</v>
       </c>
       <c r="H26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.34</v>
+        <v>1.38</v>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>1.43</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>2.16</v>
+        <v>4.8</v>
       </c>
       <c r="K27" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="Q27" t="n">
         <v>2.1</v>
@@ -4147,6 +4147,141 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -679,7 +679,7 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -946,25 +946,25 @@
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -973,76 +973,76 @@
         <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
         <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,10 +1105,10 @@
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.15</v>
@@ -1120,64 +1120,64 @@
         <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>1.42</v>
       </c>
       <c r="I6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G7" t="n">
-        <v>840</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>730</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="K7" t="n">
-        <v>95</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1750,19 +1750,19 @@
         <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2026,7 +2026,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2050,7 +2050,7 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2188,16 +2188,16 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
         <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2290,16 +2290,16 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>5.1</v>
@@ -2566,7 +2566,7 @@
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2725,7 +2725,7 @@
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
         <v>1.96</v>
@@ -3241,13 +3241,13 @@
         <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I23" t="n">
         <v>2.9</v>
@@ -3544,7 +3544,7 @@
         <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
         <v>1.86</v>
@@ -3553,7 +3553,7 @@
         <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
         <v>8.800000000000001</v>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
         <v>14</v>
@@ -3643,7 +3643,7 @@
         <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>1.49</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
         <v>4.6</v>
@@ -3796,7 +3796,7 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -3808,7 +3808,7 @@
         <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
         <v>4.3</v>
@@ -3856,7 +3856,7 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3958,7 +3958,7 @@
         <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
         <v>7.8</v>
@@ -3976,7 +3976,7 @@
         <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
@@ -4045,19 +4045,19 @@
         <v>1.38</v>
       </c>
       <c r="G27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
         <v>10.5</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J27" t="n">
         <v>4.8</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q27" t="n">
         <v>2.1</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -685,28 +685,28 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.7</v>
@@ -823,70 +823,70 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,10 +895,10 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -940,31 +940,31 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.26</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -973,76 +973,76 @@
         <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
         <v>100</v>
       </c>
-      <c r="AF4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1087,10 +1087,10 @@
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1105,22 +1105,22 @@
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W5" t="n">
         <v>1.27</v>
@@ -1225,16 +1225,16 @@
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
         <v>2.28</v>
@@ -1243,76 +1243,76 @@
         <v>1.69</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
         <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
@@ -1489,10 +1489,10 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1531,7 +1531,7 @@
         <v>3.55</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1546,10 +1546,10 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
         <v>130</v>
@@ -1558,31 +1558,31 @@
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
         <v>4.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1759,22 +1759,22 @@
         <v>2.42</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>1.81</v>
@@ -1783,76 +1783,76 @@
         <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -1894,10 +1894,10 @@
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2026,7 +2026,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2188,16 +2188,16 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2239,7 +2239,7 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2428,16 +2428,16 @@
         <v>1.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>5.1</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H21" t="n">
         <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3265,7 +3265,7 @@
         <v>1.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>2.94</v>
@@ -3520,7 +3520,7 @@
         <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="G24" t="n">
         <v>3.05</v>
@@ -3799,7 +3799,7 @@
         <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
         <v>1.75</v>
@@ -3877,7 +3877,7 @@
         <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -3976,7 +3976,7 @@
         <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K27" t="n">
         <v>5.2</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>2.78</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>16.5</v>
@@ -748,7 +748,7 @@
         <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -841,7 +841,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
         <v>1.24</v>
@@ -1105,7 +1105,7 @@
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
@@ -1114,16 +1114,16 @@
         <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1243,7 +1243,7 @@
         <v>1.69</v>
       </c>
       <c r="R6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>2.72</v>
@@ -1252,7 +1252,7 @@
         <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>3.15</v>
@@ -1363,31 +1363,31 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
         <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="T7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
       </c>
       <c r="V7" t="n">
         <v>1.04</v>
@@ -1396,58 +1396,58 @@
         <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
         <v>1.37</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
         <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1519,16 +1519,16 @@
         <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -1537,7 +1537,7 @@
         <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA8" t="n">
         <v>320</v>
@@ -1552,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1567,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
@@ -1576,13 +1576,13 @@
         <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
         <v>4.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
         <v>2.8</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
         <v>4.4</v>
@@ -1756,13 +1756,13 @@
         <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1786,7 +1786,7 @@
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
         <v>1.29</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2026,7 +2026,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2035,94 +2035,94 @@
         <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P12" t="n">
         <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
         <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
         <v>2.96</v>
@@ -2170,7 +2170,7 @@
         <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2191,7 +2191,7 @@
         <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.44</v>
@@ -2305,16 +2305,16 @@
         <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
         <v>2.46</v>
@@ -2323,76 +2323,76 @@
         <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>810</v>
       </c>
       <c r="J15" t="n">
         <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2575,16 +2575,16 @@
         <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
         <v>2.82</v>
@@ -2593,76 +2593,76 @@
         <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2710,94 +2710,94 @@
         <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2842,19 +2842,19 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
         <v>1.66</v>
@@ -2863,76 +2863,76 @@
         <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3250,16 +3250,16 @@
         <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>1.8</v>
@@ -3268,76 +3268,76 @@
         <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3370,10 +3370,10 @@
         <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
         <v>3.3</v>
@@ -3385,16 +3385,16 @@
         <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
         <v>1.62</v>
@@ -3403,76 +3403,76 @@
         <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3520,7 +3520,7 @@
         <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
@@ -3529,7 +3529,7 @@
         <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
@@ -3556,16 +3556,16 @@
         <v>1.47</v>
       </c>
       <c r="X23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y23" t="n">
         <v>8.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="n">
         <v>9</v>
@@ -3574,40 +3574,40 @@
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>14</v>
       </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AH23" t="n">
         <v>23</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM23" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3643,106 +3643,106 @@
         <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="J24" t="n">
-        <v>2.18</v>
+        <v>1.51</v>
       </c>
       <c r="K24" t="n">
         <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="P24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q24" t="n">
         <v>3.4</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3790,7 +3790,7 @@
         <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3808,7 +3808,7 @@
         <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
         <v>4.3</v>
@@ -3826,13 +3826,13 @@
         <v>1.61</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>55</v>
@@ -3844,40 +3844,40 @@
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
         <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>3.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M26" t="n">
         <v>1.15</v>
@@ -3940,7 +3940,7 @@
         <v>1.48</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
@@ -3949,10 +3949,10 @@
         <v>6.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
         <v>1.28</v>
@@ -3961,16 +3961,16 @@
         <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
         <v>6.4</v>
@@ -3979,25 +3979,25 @@
         <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
         <v>34</v>
@@ -4006,13 +4006,13 @@
         <v>75</v>
       </c>
       <c r="AM26" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="n">
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -4057,19 +4057,19 @@
         <v>4.9</v>
       </c>
       <c r="K27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.79</v>
@@ -4078,76 +4078,76 @@
         <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>2.58</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
         <v>2.9</v>
@@ -4189,7 +4189,7 @@
         <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
         <v>3.4</v>
@@ -4210,7 +4210,7 @@
         <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -706,13 +706,13 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -724,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
         <v>30</v>
@@ -751,13 +751,13 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>27</v>
@@ -772,7 +772,7 @@
         <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -841,7 +841,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -940,7 +940,7 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
@@ -949,7 +949,7 @@
         <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -988,7 +988,7 @@
         <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>75</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1.93</v>
@@ -1099,7 +1099,7 @@
         <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
         <v>1.97</v>
@@ -1108,10 +1108,10 @@
         <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
         <v>1.73</v>
@@ -1216,7 +1216,7 @@
         <v>1.42</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J6" t="n">
         <v>5.2</v>
@@ -1255,7 +1255,7 @@
         <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W6" t="n">
         <v>1.12</v>
@@ -1267,7 +1267,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>12.5</v>
@@ -1375,7 +1375,7 @@
         <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
         <v>1.96</v>
@@ -1444,7 +1444,7 @@
         <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AO7" t="n">
         <v>410</v>
@@ -1522,7 +1522,7 @@
         <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -2032,7 +2032,7 @@
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,7 +2047,7 @@
         <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.33</v>
@@ -2059,16 +2059,16 @@
         <v>1.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X12" t="n">
         <v>48</v>
@@ -2170,7 +2170,7 @@
         <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2188,7 +2188,7 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S13" t="n">
         <v>2.1</v>
@@ -2290,16 +2290,16 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>5.1</v>
@@ -2323,10 +2323,10 @@
         <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2605,7 +2605,7 @@
         <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W16" t="n">
         <v>1.42</v>
@@ -2704,7 +2704,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
         <v>6.2</v>
@@ -2713,91 +2713,91 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="n">
         <v>95</v>
       </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>100</v>
-      </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G19" t="n">
         <v>1.97</v>
@@ -3100,16 +3100,16 @@
         <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3244,7 +3244,7 @@
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
         <v>2.34</v>
@@ -3520,7 +3520,7 @@
         <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
@@ -3529,13 +3529,13 @@
         <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3547,7 +3547,7 @@
         <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
         <v>1.53</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.09</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
         <v>3.05</v>
@@ -3646,13 +3646,13 @@
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.51</v>
+        <v>2.24</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.72</v>
@@ -3664,7 +3664,7 @@
         <v>1.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
         <v>1.08</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
         <v>1.48</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G26" t="n">
         <v>2.2</v>
@@ -4072,7 +4072,7 @@
         <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
         <v>2.14</v>
@@ -4081,7 +4081,7 @@
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4120,7 +4120,7 @@
         <v>290</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -4132,7 +4132,7 @@
         <v>280</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4180,13 +4180,13 @@
         <v>2.58</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
         <v>2.96</v>
@@ -4195,94 +4195,94 @@
         <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
         <v>1.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -682,7 +682,7 @@
         <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -724,40 +724,40 @@
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
         <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
         <v>27</v>
@@ -772,7 +772,7 @@
         <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -832,22 +832,22 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -859,34 +859,34 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,10 +895,10 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -940,19 +940,19 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,7 +964,7 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -985,13 +985,13 @@
         <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
@@ -1009,28 +1009,28 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>120</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
         <v>2.08</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
@@ -1099,31 +1099,31 @@
         <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.75</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
         <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
@@ -1249,70 +1249,70 @@
         <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
         <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1351,13 +1351,13 @@
         <v>18.5</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
         <v>8.6</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,7 +1375,7 @@
         <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
         <v>1.96</v>
@@ -1507,10 +1507,10 @@
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.79</v>
@@ -1531,28 +1531,28 @@
         <v>3.7</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1561,10 +1561,10 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1573,13 +1573,13 @@
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>130</v>
@@ -1612,103 +1612,103 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,76 +1771,76 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,7 +1918,7 @@
         <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
         <v>2.52</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2050,13 +2050,13 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.42</v>
@@ -2065,10 +2065,10 @@
         <v>2.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
         <v>48</v>
@@ -2080,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2098,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
@@ -2164,7 +2164,7 @@
         <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>5.1</v>
@@ -2188,10 +2188,10 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
         <v>1.44</v>
@@ -2290,22 +2290,22 @@
         <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="H15" t="n">
         <v>2.24</v>
@@ -2434,7 +2434,7 @@
         <v>810</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>2.24</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
@@ -2599,7 +2599,7 @@
         <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="n">
         <v>2.74</v>
@@ -2611,25 +2611,25 @@
         <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
         <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
@@ -2638,13 +2638,13 @@
         <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>55</v>
@@ -2656,7 +2656,7 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
         <v>17.5</v>
@@ -2695,7 +2695,7 @@
         <v>1.41</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H17" t="n">
         <v>6.6</v>
@@ -2704,7 +2704,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K17" t="n">
         <v>6.2</v>
@@ -2725,13 +2725,13 @@
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="T17" t="n">
         <v>1.64</v>
@@ -2743,7 +2743,7 @@
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X17" t="n">
         <v>40</v>
@@ -2830,7 +2830,7 @@
         <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
         <v>1.97</v>
@@ -2971,13 +2971,13 @@
         <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3001,7 +3001,7 @@
         <v>1.08</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
         <v>2.94</v>
@@ -3112,22 +3112,22 @@
         <v>2.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q20" t="n">
         <v>2.34</v>
@@ -3238,13 +3238,13 @@
         <v>1.97</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3253,13 +3253,13 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
         <v>1.8</v>
@@ -3268,16 +3268,16 @@
         <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
@@ -3286,58 +3286,58 @@
         <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>21</v>
       </c>
-      <c r="Z21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="AC21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3379,7 +3379,7 @@
         <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>3.2</v>
@@ -3388,13 +3388,13 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.64</v>
+        <v>2.82</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
         <v>1.64</v>
@@ -3403,76 +3403,76 @@
         <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO22" t="n">
         <v>55</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3586,16 +3586,16 @@
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="n">
         <v>70</v>
@@ -3607,7 +3607,7 @@
         <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>3.05</v>
@@ -3649,100 +3649,100 @@
         <v>4.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.72</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="P24" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="Q24" t="n">
         <v>3.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
         <v>1.48</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
@@ -3790,7 +3790,7 @@
         <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3799,7 +3799,7 @@
         <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
         <v>1.75</v>
@@ -3811,7 +3811,7 @@
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
         <v>1.96</v>
@@ -3829,7 +3829,7 @@
         <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>20</v>
@@ -3925,7 +3925,7 @@
         <v>3.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M26" t="n">
         <v>1.15</v>
@@ -3946,7 +3946,7 @@
         <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T26" t="n">
         <v>2.44</v>
@@ -3973,7 +3973,7 @@
         <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC26" t="n">
         <v>7.2</v>
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
         <v>130</v>
@@ -4066,28 +4066,28 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
         <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V27" t="n">
         <v>1.09</v>
@@ -4096,10 +4096,10 @@
         <v>3.25</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
         <v>110</v>
@@ -4108,43 +4108,43 @@
         <v>610</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
         <v>280</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO27" t="n">
         <v>510</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.58</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -700,13 +700,13 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -745,7 +745,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
         <v>14</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
         <v>1.64</v>
@@ -832,10 +832,10 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -844,10 +844,10 @@
         <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -979,10 +979,10 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>2.08</v>
@@ -1087,7 +1087,7 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
@@ -1105,25 +1105,25 @@
         <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1213,16 +1213,16 @@
         <v>9.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J6" t="n">
         <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1237,7 +1237,7 @@
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
         <v>1.69</v>
@@ -1651,7 +1651,7 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
         <v>1.59</v>
@@ -1750,19 +1750,19 @@
         <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,16 +1771,16 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>1.27</v>
@@ -1795,52 +1795,52 @@
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,10 +1918,10 @@
         <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,55 +1930,55 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2050,13 +2050,13 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
         <v>1.42</v>
@@ -2170,7 +2170,7 @@
         <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2188,10 +2188,10 @@
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>1.44</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
         <v>1.99</v>
@@ -2296,22 +2296,22 @@
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2323,76 +2323,76 @@
         <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>1.59</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="H15" t="n">
         <v>2.24</v>
@@ -2434,7 +2434,7 @@
         <v>810</v>
       </c>
       <c r="J15" t="n">
-        <v>2.24</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
@@ -2575,7 +2575,7 @@
         <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2599,7 +2599,7 @@
         <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
         <v>2.74</v>
@@ -2728,10 +2728,10 @@
         <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
         <v>1.64</v>
@@ -2845,7 +2845,7 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2863,7 +2863,7 @@
         <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="S18" t="n">
         <v>2.28</v>
@@ -2881,49 +2881,49 @@
         <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -3115,28 +3115,28 @@
         <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="R20" t="n">
         <v>1.07</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.72</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="N24" t="n">
-        <v>1.12</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="P24" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="S24" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="U24" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
         <v>6.2</v>
@@ -3718,7 +3718,7 @@
         <v>17.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
         <v>34</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
         <v>3.45</v>
@@ -4192,7 +4192,7 @@
         <v>2.66</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -679,13 +679,13 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,13 +700,13 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -721,7 +721,7 @@
         <v>1.78</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>19.5</v>
@@ -772,7 +772,7 @@
         <v>16.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -823,31 +823,31 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
         <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -961,7 +961,7 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
         <v>1.45</v>
@@ -970,7 +970,7 @@
         <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -979,7 +979,7 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
@@ -988,10 +988,10 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
@@ -1009,13 +1009,13 @@
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1030,10 +1030,10 @@
         <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
@@ -1075,19 +1075,19 @@
         <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
@@ -1096,34 +1096,34 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1150,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1159,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
         <v>110</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.41</v>
@@ -1231,19 +1231,19 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>2.72</v>
@@ -1252,7 +1252,7 @@
         <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
         <v>3.3</v>
@@ -1264,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
         <v>10</v>
@@ -1303,13 +1303,13 @@
         <v>160</v>
       </c>
       <c r="AL6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1351,7 +1351,7 @@
         <v>18.5</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>8.6</v>
@@ -1378,7 +1378,7 @@
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.89</v>
@@ -1390,7 +1390,7 @@
         <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
         <v>5.8</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>26</v>
@@ -1420,7 +1420,7 @@
         <v>360</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>16.5</v>
@@ -1444,7 +1444,7 @@
         <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="AO7" t="n">
         <v>410</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
         <v>1.37</v>
@@ -1486,13 +1486,13 @@
         <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
         <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1519,10 +1519,10 @@
         <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -1540,10 +1540,10 @@
         <v>130</v>
       </c>
       <c r="AA8" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
         <v>16.5</v>
@@ -1552,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I9" t="n">
         <v>3.7</v>
@@ -1651,10 +1651,10 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -1750,64 +1750,64 @@
         <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
         <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1828,31 +1828,31 @@
         <v>980</v>
       </c>
       <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
         <v>980</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK10" t="n">
         <v>980</v>
       </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>65</v>
-      </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1918,19 +1918,19 @@
         <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
         <v>1.92</v>
@@ -2050,13 +2050,13 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.42</v>
@@ -2080,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2098,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
         <v>2.62</v>
@@ -2161,13 +2161,13 @@
         <v>2.58</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1.24</v>
@@ -2305,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2425,10 +2425,10 @@
         <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
         <v>810</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>4.7</v>
@@ -2977,7 +2977,7 @@
         <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3013,7 +3013,7 @@
         <v>1.13</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3115,22 +3115,22 @@
         <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P20" t="n">
         <v>1.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>1.07</v>
@@ -3262,13 +3262,13 @@
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>3.75</v>
@@ -3280,7 +3280,7 @@
         <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
         <v>2.02</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
         <v>2.92</v>
@@ -3391,7 +3391,7 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.45</v>
@@ -3442,7 +3442,7 @@
         <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
         <v>18</v>
@@ -3451,7 +3451,7 @@
         <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>65</v>
@@ -3469,10 +3469,10 @@
         <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -3529,7 +3529,7 @@
         <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
@@ -3667,7 +3667,7 @@
         <v>1.81</v>
       </c>
       <c r="P24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q24" t="n">
         <v>3.5</v>
@@ -3682,7 +3682,7 @@
         <v>2.52</v>
       </c>
       <c r="U24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
         <v>1.34</v>
@@ -3808,7 +3808,7 @@
         <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
         <v>4.4</v>
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
         <v>130</v>
@@ -4048,7 +4048,7 @@
         <v>1.44</v>
       </c>
       <c r="H27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
         <v>12</v>
@@ -4090,7 +4090,7 @@
         <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W27" t="n">
         <v>3.25</v>
@@ -4114,10 +4114,10 @@
         <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="n">
         <v>6.8</v>
@@ -4141,7 +4141,7 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="n">
         <v>8.800000000000001</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.47</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.47</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.08</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -673,7 +673,7 @@
         <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -706,7 +706,7 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -805,7 +805,7 @@
         <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>3.6</v>
@@ -832,10 +832,10 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
         <v>1.34</v>
@@ -844,70 +844,70 @@
         <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -988,7 +988,7 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
@@ -1033,7 +1033,7 @@
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
         <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1099,10 +1099,10 @@
         <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
         <v>1.84</v>
@@ -1114,16 +1114,16 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1216,10 +1216,10 @@
         <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
@@ -1243,7 +1243,7 @@
         <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
         <v>2.72</v>
@@ -1255,7 +1255,7 @@
         <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W6" t="n">
         <v>1.11</v>
@@ -1348,10 +1348,10 @@
         <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
         <v>8.6</v>
@@ -1366,7 +1366,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.12</v>
@@ -1378,7 +1378,7 @@
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="n">
         <v>1.89</v>
@@ -1387,10 +1387,10 @@
         <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
         <v>5.8</v>
@@ -1444,10 +1444,10 @@
         <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="AO7" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1492,7 +1492,7 @@
         <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X8" t="n">
         <v>38</v>
@@ -1615,13 +1615,13 @@
         <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -1642,28 +1642,28 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.94</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,13 +1771,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
         <v>1.92</v>
@@ -1789,16 +1789,16 @@
         <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1837,7 +1837,7 @@
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1909,28 +1909,28 @@
         <v>2.12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U11" t="n">
         <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
         <v>1.92</v>
@@ -2020,7 +2020,7 @@
         <v>1.86</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2050,25 +2050,25 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
         <v>1.42</v>
       </c>
       <c r="U12" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>48</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
         <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2170,34 +2170,34 @@
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q13" t="n">
         <v>1.45</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2305,16 +2305,16 @@
         <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
         <v>2.46</v>
@@ -2326,16 +2326,16 @@
         <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
         <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>810</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J17" t="n">
         <v>5.1</v>
@@ -2725,37 +2725,37 @@
         <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.77</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T17" t="n">
         <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X17" t="n">
         <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -2776,7 +2776,7 @@
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>75</v>
@@ -2794,7 +2794,7 @@
         <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO17" t="n">
         <v>75</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H19" t="n">
         <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,22 +2986,22 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
         <v>1.08</v>
       </c>
       <c r="S19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S20" t="n">
         <v>4.7</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.01</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
         <v>1.97</v>
@@ -3256,7 +3256,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
@@ -3265,7 +3265,7 @@
         <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
         <v>1.29</v>
@@ -3280,7 +3280,7 @@
         <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>2.02</v>
@@ -3529,7 +3529,7 @@
         <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
         <v>1.57</v>
@@ -3541,7 +3541,7 @@
         <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
@@ -3649,7 +3649,7 @@
         <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K24" t="n">
         <v>2.9</v>
@@ -3781,7 +3781,7 @@
         <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
@@ -3820,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
         <v>1.61</v>
@@ -3856,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
         <v>55</v>
@@ -4141,7 +4141,7 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="n">
         <v>8.800000000000001</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -694,7 +694,7 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>2.28</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1.48</v>
       </c>
       <c r="I3" t="n">
-        <v>8.199999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.13</v>
       </c>
-      <c r="W3" t="n">
-        <v>2.58</v>
-      </c>
       <c r="X3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA3" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>290</v>
-      </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>1.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.79</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.93</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>970</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>1.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.6</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>9.6</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>3.2</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.11</v>
+        <v>2.58</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN6" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>350</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>190</v>
-      </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.17</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>15.5</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB7" t="n">
         <v>8</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>1.93</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>3.75</v>
+        <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>130</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>7.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.96</v>
+        <v>1.43</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.15</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH9" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>2.34</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.35</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>1.89</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>5.8</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>360</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>2.92</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>2.12</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>46</v>
       </c>
-      <c r="AA11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>24</v>
-      </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
         <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>22</v>
       </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
         <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2548,34 +2548,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2590,79 +2590,79 @@
         <v>2.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
         <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
         <v>30</v>
       </c>
-      <c r="AG16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AM16" t="n">
         <v>55</v>
       </c>
-      <c r="AK16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>60</v>
-      </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.66</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>2.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="R18" t="n">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="X18" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>4.7</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.08</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.77</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,105 +3083,105 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="G20" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.52</v>
+        <v>1.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG20" t="n">
         <v>16</v>
       </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
         <v>100</v>
@@ -3196,19 +3196,19 @@
         <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>1.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>1.99</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.86</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG23" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="n">
         <v>40</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>44</v>
       </c>
       <c r="AL23" t="n">
         <v>70</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.81</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.35</v>
-      </c>
       <c r="Q24" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO24" t="n">
         <v>110</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
         <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN25" t="n">
         <v>40</v>
       </c>
-      <c r="AF25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>29</v>
-      </c>
       <c r="AO25" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>2.86</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="M26" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="P26" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
         <v>6.8</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,260 +4028,665 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.41</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.9</v>
+        <v>2.68</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="U27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
         <v>110</v>
       </c>
-      <c r="AA27" t="n">
-        <v>610</v>
-      </c>
       <c r="AB27" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.800000000000001</v>
+        <v>75</v>
       </c>
       <c r="AO27" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>610</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Quindio</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.32</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="R31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.01</v>
       </c>
-      <c r="M28" t="n">
+      <c r="U31" t="n">
         <v>1.01</v>
       </c>
-      <c r="N28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="V31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -673,7 +673,7 @@
         <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -682,7 +682,7 @@
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -694,7 +694,7 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
         <v>2.28</v>
@@ -709,7 +709,7 @@
         <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
@@ -766,7 +766,7 @@
         <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>16.5</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>3.75</v>
@@ -832,16 +832,16 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W3" t="n">
         <v>1.13</v>
@@ -859,25 +859,25 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
         <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
         <v>70</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>970</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
         <v>1.63</v>
@@ -1231,25 +1231,25 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
         <v>1.84</v>
@@ -1273,7 +1273,7 @@
         <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1297,10 +1297,10 @@
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1345,19 +1345,19 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,19 +1366,19 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
@@ -1387,13 +1387,13 @@
         <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1405,7 +1405,7 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1447,7 +1447,7 @@
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1510,19 +1510,19 @@
         <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>1.92</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I9" t="n">
         <v>1.45</v>
@@ -1627,7 +1627,7 @@
         <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1654,22 +1654,22 @@
         <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
@@ -1678,7 +1678,7 @@
         <v>14.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>14.5</v>
@@ -1690,10 +1690,10 @@
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1702,10 +1702,10 @@
         <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AK9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL9" t="n">
         <v>130</v>
@@ -1717,7 +1717,7 @@
         <v>190</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
@@ -1906,37 +1906,37 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
         <v>70</v>
@@ -1945,49 +1945,49 @@
         <v>130</v>
       </c>
       <c r="AA11" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
         <v>46</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -2029,7 +2029,7 @@
         <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2068,7 +2068,7 @@
         <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,7 +2182,7 @@
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
         <v>1.94</v>
@@ -2194,13 +2194,13 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
         <v>1.38</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>980</v>
@@ -2242,7 +2242,7 @@
         <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
@@ -2251,7 +2251,7 @@
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
@@ -2302,7 +2302,7 @@
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2338,7 +2338,7 @@
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S15" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
         <v>29</v>
@@ -2485,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -2509,7 +2509,7 @@
         <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
         <v>30</v>
@@ -2518,16 +2518,16 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2560,22 +2560,22 @@
         <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2617,10 +2617,10 @@
         <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
         <v>22</v>
@@ -2632,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2644,13 +2644,13 @@
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -2659,10 +2659,10 @@
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,49 +2692,49 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>5.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
         <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
         <v>2.46</v>
@@ -2743,22 +2743,22 @@
         <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X17" t="n">
         <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>12.5</v>
@@ -2770,34 +2770,34 @@
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
         <v>5.9</v>
@@ -2860,16 +2860,16 @@
         <v>2.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S18" t="n">
         <v>2.16</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
         <v>2.26</v>
@@ -2878,7 +2878,7 @@
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X18" t="n">
         <v>38</v>
@@ -2893,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
         <v>14.5</v>
@@ -2917,7 +2917,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>17</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO18" t="n">
         <v>75</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3010,10 +3010,10 @@
         <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3022,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
         <v>36</v>
@@ -3031,7 +3031,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>14.5</v>
@@ -3043,10 +3043,10 @@
         <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3067,7 +3067,7 @@
         <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
@@ -3148,7 +3148,7 @@
         <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>15.5</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
         <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
         <v>3.3</v>
@@ -3532,10 +3532,10 @@
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
         <v>1.96</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.43</v>
@@ -3670,7 +3670,7 @@
         <v>1.81</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
         <v>1.29</v>
@@ -3679,10 +3679,10 @@
         <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>2.94</v>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O25" t="n">
         <v>1.46</v>
@@ -3820,10 +3820,10 @@
         <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X25" t="n">
         <v>10.5</v>
@@ -4054,13 +4054,13 @@
         <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="n">
         <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
         <v>1.19</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -4273,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
         <v>120</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
@@ -4351,7 +4351,7 @@
         <v>1.16</v>
       </c>
       <c r="S29" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T29" t="n">
         <v>2.44</v>
@@ -4363,7 +4363,7 @@
         <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
         <v>7.6</v>
@@ -4399,7 +4399,7 @@
         <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -4450,19 +4450,19 @@
         <v>1.41</v>
       </c>
       <c r="G30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.44</v>
@@ -4471,13 +4471,13 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
         <v>2.16</v>
@@ -4489,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V30" t="n">
         <v>1.09</v>
@@ -4507,7 +4507,7 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA30" t="n">
         <v>610</v>
@@ -4519,7 +4519,7 @@
         <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="n">
         <v>260</v>
@@ -4546,13 +4546,13 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J31" t="n">
         <v>2.66</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -706,13 +706,13 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
         <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,7 +835,7 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
@@ -844,13 +844,13 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.13</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
         <v>90</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="n">
         <v>970</v>
@@ -943,28 +943,28 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="I4" t="n">
         <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
         <v>1.74</v>
@@ -973,10 +973,10 @@
         <v>1.79</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1243,13 +1243,13 @@
         <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.84</v>
@@ -1273,7 +1273,7 @@
         <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1357,7 +1357,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>85</v>
@@ -1480,7 +1480,7 @@
         <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H8" t="n">
         <v>1.93</v>
@@ -1513,16 +1513,16 @@
         <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.92</v>
@@ -1627,7 +1627,7 @@
         <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1651,10 +1651,10 @@
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
@@ -1918,28 +1918,28 @@
         <v>1.39</v>
       </c>
       <c r="R11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="n">
         <v>130</v>
@@ -1954,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
         <v>150</v>
@@ -2155,19 +2155,19 @@
         <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
         <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2194,16 +2194,16 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G14" t="n">
         <v>2.08</v>
@@ -2296,7 +2296,7 @@
         <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2314,7 +2314,7 @@
         <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.12</v>
@@ -2335,10 +2335,10 @@
         <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
         <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -2452,31 +2452,31 @@
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y15" t="n">
         <v>29</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
@@ -2521,13 +2521,13 @@
         <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2575,7 +2575,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2596,7 +2596,7 @@
         <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>1.45</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.82</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2878,7 +2878,7 @@
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X18" t="n">
         <v>38</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>1.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="S19" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
         <v>30</v>
       </c>
-      <c r="AG19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.92</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.66</v>
+        <v>6.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>1.16</v>
+        <v>1.74</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG20" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16</v>
-      </c>
       <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
         <v>30</v>
       </c>
-      <c r="AI20" t="n">
-        <v>100</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S22" t="n">
         <v>4.7</v>
       </c>
-      <c r="I22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.99</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>1.96</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
         <v>80</v>
       </c>
-      <c r="AB23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>44</v>
-      </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="G24" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.9</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="W25" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.06</v>
       </c>
       <c r="O26" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="S26" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="U26" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF26" t="n">
         <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK26" t="n">
         <v>55</v>
       </c>
-      <c r="AK26" t="n">
-        <v>44</v>
-      </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO26" t="n">
         <v>170</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL27" t="n">
         <v>50</v>
       </c>
-      <c r="AK27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>130</v>
-      </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.2</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.27</v>
       </c>
-      <c r="S28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF28" t="n">
         <v>11</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>1.42</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="n">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>3.3</v>
       </c>
       <c r="X29" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG29" t="n">
         <v>11</v>
       </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>160</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,260 +4433,125 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.41</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W30" t="n">
-        <v>3.3</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -694,13 +694,13 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
@@ -712,64 +712,64 @@
         <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -811,13 +811,13 @@
         <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -835,16 +835,16 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -952,19 +952,19 @@
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
         <v>1.74</v>
@@ -1075,43 +1075,43 @@
         <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
         <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -1219,13 +1219,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1237,13 +1237,13 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
         <v>3.3</v>
@@ -1252,13 +1252,13 @@
         <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X6" t="n">
         <v>18.5</v>
@@ -1273,7 +1273,7 @@
         <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1309,7 +1309,7 @@
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>200</v>
@@ -1345,19 +1345,19 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,16 +1366,16 @@
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1393,7 +1393,7 @@
         <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G8" t="n">
         <v>5.1</v>
@@ -1516,7 +1516,7 @@
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
         <v>1.74</v>
@@ -1528,7 +1528,7 @@
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
@@ -1621,7 +1621,7 @@
         <v>1.42</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J9" t="n">
         <v>5.1</v>
@@ -1657,10 +1657,10 @@
         <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W9" t="n">
         <v>1.12</v>
@@ -1669,10 +1669,10 @@
         <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>14.5</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.13</v>
@@ -1918,7 +1918,7 @@
         <v>1.39</v>
       </c>
       <c r="R11" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
         <v>1.99</v>
@@ -1933,13 +1933,13 @@
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
         <v>130</v>
@@ -1951,13 +1951,13 @@
         <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="n">
         <v>11.5</v>
@@ -1984,10 +1984,10 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
         <v>29</v>
@@ -2083,10 +2083,10 @@
         <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
@@ -2095,7 +2095,7 @@
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2107,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2200,7 +2200,7 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
         <v>1.43</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G14" t="n">
         <v>2.08</v>
@@ -2314,7 +2314,7 @@
         <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
         <v>2.12</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
         <v>3.9</v>
@@ -2437,49 +2437,49 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S15" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="V15" t="n">
         <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
@@ -2506,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>38</v>
@@ -2518,16 +2518,16 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -2575,7 +2575,7 @@
         <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2638,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2875,61 +2875,61 @@
         <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="X18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
         <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO18" t="n">
         <v>75</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.17</v>
+        <v>1.74</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>16</v>
-      </c>
       <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
         <v>30</v>
       </c>
-      <c r="AI19" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="G20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>6.4</v>
+        <v>1.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH20" t="n">
         <v>30</v>
       </c>
-      <c r="AG20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
       <c r="AI20" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.42</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>2.76</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.52</v>
+        <v>1.63</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7</v>
+        <v>1.99</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>1.96</v>
+        <v>2.76</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.7</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
         <v>16</v>
       </c>
-      <c r="Z23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO23" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>2.94</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD24" t="n">
         <v>21</v>
       </c>
-      <c r="AA24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O25" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.53</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="M26" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="P26" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X26" t="n">
         <v>8.6</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6.2</v>
-      </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
         <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN26" t="n">
         <v>55</v>
       </c>
-      <c r="AL26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>75</v>
-      </c>
       <c r="AO26" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK27" t="n">
         <v>55</v>
       </c>
-      <c r="AB27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>30</v>
-      </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S28" t="n">
         <v>4.4</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.6</v>
-      </c>
       <c r="T28" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="X28" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
         <v>29</v>
       </c>
-      <c r="AI28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>34</v>
-      </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,260 +4298,395 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="G29" t="n">
-        <v>1.43</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF29" t="n">
         <v>11</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="n">
         <v>250</v>
       </c>
-      <c r="AF29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>320</v>
-      </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Quindio</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="F31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L31" t="n">
         <v>1.01</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>1.01</v>
       </c>
-      <c r="N30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="N31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.47</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -706,10 +706,10 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.44</v>
@@ -718,22 +718,22 @@
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -742,7 +742,7 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
@@ -757,10 +757,10 @@
         <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -805,19 +805,19 @@
         <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,13 +826,13 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
@@ -847,16 +847,16 @@
         <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>2.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
@@ -880,7 +880,7 @@
         <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
         <v>30</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
         <v>6.2</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>1.79</v>
@@ -1075,31 +1075,31 @@
         <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>970</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
         <v>1.6</v>
@@ -1108,7 +1108,7 @@
         <v>1.99</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
         <v>1.99</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -1222,10 +1222,10 @@
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1234,10 +1234,10 @@
         <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.93</v>
@@ -1246,10 +1246,10 @@
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1258,22 +1258,22 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X6" t="n">
         <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
         <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
@@ -1285,22 +1285,22 @@
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1309,7 +1309,7 @@
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
         <v>200</v>
@@ -1345,28 +1345,28 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1384,16 +1384,16 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1444,7 +1444,7 @@
         <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>110</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
         <v>1.93</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,37 +1501,37 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>1.42</v>
       </c>
       <c r="I9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1642,82 +1642,82 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
         <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W9" t="n">
         <v>1.12</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AK9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM9" t="n">
         <v>150</v>
       </c>
-      <c r="AL9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>160</v>
-      </c>
       <c r="AN9" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G10" t="n">
         <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
         <v>8.6</v>
@@ -1771,31 +1771,31 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q10" t="n">
         <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
         <v>5.8</v>
@@ -1804,55 +1804,55 @@
         <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
         <v>48</v>
       </c>
       <c r="AI10" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AO10" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1885,22 +1885,22 @@
         <v>1.29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H11" t="n">
         <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1915,7 +1915,7 @@
         <v>3.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
         <v>1.82</v>
@@ -1924,16 +1924,16 @@
         <v>1.99</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -1948,10 +1948,10 @@
         <v>420</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
         <v>40</v>
@@ -1963,7 +1963,7 @@
         <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -1972,7 +1972,7 @@
         <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>14</v>
@@ -1984,10 +1984,10 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2041,16 +2041,16 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2059,7 +2059,7 @@
         <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
         <v>1.98</v>
@@ -2071,10 +2071,10 @@
         <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>29</v>
@@ -2089,7 +2089,7 @@
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
@@ -2152,43 +2152,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>3.7</v>
@@ -2200,10 +2200,10 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2212,13 +2212,13 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
         <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2251,13 +2251,13 @@
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>3.9</v>
@@ -2437,7 +2437,7 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.16</v>
@@ -2461,7 +2461,7 @@
         <v>2.04</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="T15" t="n">
         <v>1.38</v>
@@ -2473,7 +2473,7 @@
         <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
         <v>48</v>
@@ -2560,25 +2560,25 @@
         <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>2.94</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>6.4</v>
@@ -2596,7 +2596,7 @@
         <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
         <v>1.45</v>
@@ -2617,10 +2617,10 @@
         <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
         <v>22</v>
@@ -2638,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2647,10 +2647,10 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -2659,7 +2659,7 @@
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>4.6</v>
@@ -2722,7 +2722,7 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q17" t="n">
         <v>1.58</v>
@@ -2734,7 +2734,7 @@
         <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
         <v>2.46</v>
@@ -2743,7 +2743,7 @@
         <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
         <v>30</v>
@@ -2782,7 +2782,7 @@
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,13 +2851,13 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
         <v>1.46</v>
@@ -2875,10 +2875,10 @@
         <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X18" t="n">
         <v>34</v>
@@ -2965,7 +2965,7 @@
         <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.22</v>
@@ -2974,16 +2974,16 @@
         <v>2.36</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>6.4</v>
@@ -3004,7 +3004,7 @@
         <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
         <v>2.8</v>
@@ -3013,7 +3013,7 @@
         <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3139,7 +3139,7 @@
         <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
         <v>1.01</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
         <v>5.7</v>
@@ -3247,7 +3247,7 @@
         <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
         <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3655,7 +3655,7 @@
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3670,7 +3670,7 @@
         <v>1.81</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
         <v>1.3</v>
@@ -3709,10 +3709,10 @@
         <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
@@ -3742,7 +3742,7 @@
         <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
         <v>2.96</v>
@@ -3784,10 +3784,10 @@
         <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3799,7 +3799,7 @@
         <v>2.82</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
         <v>1.64</v>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
         <v>1.45</v>
@@ -3916,31 +3916,31 @@
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.05</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O26" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P26" t="n">
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
@@ -3949,19 +3949,19 @@
         <v>5.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U26" t="n">
         <v>1.84</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y26" t="n">
         <v>8.6</v>
@@ -3973,7 +3973,7 @@
         <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
         <v>6.8</v>
@@ -3982,7 +3982,7 @@
         <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
         <v>17.5</v>
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
         <v>170</v>
@@ -4012,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4066,7 +4066,7 @@
         <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
         <v>1.83</v>
@@ -4084,7 +4084,7 @@
         <v>8.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="n">
         <v>1.57</v>
@@ -4183,16 +4183,16 @@
         <v>2.62</v>
       </c>
       <c r="H28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.2</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -4207,7 +4207,7 @@
         <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
         <v>2.3</v>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
         <v>1.61</v>
@@ -4234,7 +4234,7 @@
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
         <v>20</v>
@@ -4252,7 +4252,7 @@
         <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
@@ -4264,22 +4264,22 @@
         <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
         <v>42</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.5</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
@@ -4330,22 +4330,22 @@
         <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M29" t="n">
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O29" t="n">
         <v>1.66</v>
       </c>
       <c r="P29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R29" t="n">
         <v>1.16</v>
@@ -4354,37 +4354,37 @@
         <v>6.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U29" t="n">
         <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X29" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
         <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
         <v>90</v>
@@ -4393,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>29</v>
@@ -4402,7 +4402,7 @@
         <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
@@ -4411,7 +4411,7 @@
         <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="n">
         <v>34</v>
@@ -4465,7 +4465,7 @@
         <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4474,13 +4474,13 @@
         <v>3.35</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
@@ -4489,22 +4489,22 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U30" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W30" t="n">
         <v>3.3</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="n">
         <v>100</v>
@@ -4519,7 +4519,7 @@
         <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE30" t="n">
         <v>260</v>
@@ -4534,7 +4534,7 @@
         <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AJ30" t="n">
         <v>11.5</v>
@@ -4546,7 +4546,7 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
@@ -4585,13 +4585,13 @@
         <v>2.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>2.76</v>
       </c>
       <c r="I31" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
         <v>2.96</v>
@@ -4603,13 +4603,13 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.6</v>
+        <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
         <v>1.6</v>
@@ -4618,76 +4618,76 @@
         <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
         <v>1.47</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -676,7 +676,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
@@ -721,10 +721,10 @@
         <v>1.81</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -754,10 +754,10 @@
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -811,13 +811,13 @@
         <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -835,10 +835,10 @@
         <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
         <v>2.46</v>
@@ -850,7 +850,7 @@
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
@@ -883,7 +883,7 @@
         <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>25</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -955,94 +955,94 @@
         <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1126,7 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1234,13 +1234,13 @@
         <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.94</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2.06</v>
@@ -1357,10 +1357,10 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1375,7 +1375,7 @@
         <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I8" t="n">
         <v>2.08</v>
@@ -1492,7 +1492,7 @@
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1504,7 +1504,7 @@
         <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.72</v>
@@ -1528,7 +1528,7 @@
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X8" t="n">
         <v>19.5</v>
@@ -1615,19 +1615,19 @@
         <v>8.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1636,79 +1636,79 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AK9" t="n">
         <v>140</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
         <v>150</v>
@@ -1717,7 +1717,7 @@
         <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
         <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
@@ -1798,16 +1798,16 @@
         <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
         <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,13 +1816,13 @@
         <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="n">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="AI10" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -1846,13 +1846,13 @@
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11">
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
         <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S11" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
         <v>70</v>
@@ -1945,16 +1945,16 @@
         <v>130</v>
       </c>
       <c r="AA11" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>140</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -1978,16 +1978,16 @@
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.41</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
         <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2185,7 +2185,7 @@
         <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
@@ -2200,7 +2200,7 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2308,70 +2308,70 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.76</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
@@ -2380,19 +2380,19 @@
         <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
         <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>3.9</v>
@@ -2437,7 +2437,7 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.16</v>
@@ -2446,28 +2446,28 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S15" t="n">
         <v>1.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="V15" t="n">
         <v>1.35</v>
@@ -2476,22 +2476,22 @@
         <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>21</v>
@@ -2503,13 +2503,13 @@
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
         <v>30</v>
@@ -2527,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2581,28 +2581,28 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="S16" t="n">
         <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2623,34 +2623,34 @@
         <v>48</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -2659,10 +2659,10 @@
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
         <v>1.88</v>
       </c>
       <c r="H17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J17" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.1</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
         <v>2.12</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
         <v>44</v>
@@ -2770,13 +2770,13 @@
         <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2785,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
         <v>32</v>
@@ -2797,7 +2797,7 @@
         <v>9.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,13 +2857,13 @@
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q18" t="n">
         <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
         <v>2.16</v>
@@ -2878,10 +2878,10 @@
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>3.25</v>
@@ -2971,7 +2971,7 @@
         <v>2.22</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
@@ -2980,7 +2980,7 @@
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -3004,25 +3004,25 @@
         <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
         <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
         <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
         <v>36</v>
@@ -3034,19 +3034,19 @@
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3058,13 +3058,13 @@
         <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3118,91 +3118,91 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>1.66</v>
+        <v>2.96</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
         <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
         <v>1.76</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
         <v>90</v>
       </c>
-      <c r="AF20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN20" t="n">
         <v>30</v>
       </c>
-      <c r="AI20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -3244,10 +3244,10 @@
         <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3370,43 +3370,43 @@
         <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H22" t="n">
         <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
         <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3418,7 +3418,7 @@
         <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -3535,7 +3535,7 @@
         <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3544,16 +3544,16 @@
         <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
@@ -3562,34 +3562,34 @@
         <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3649,28 +3649,28 @@
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
         <v>1.3</v>
@@ -3679,7 +3679,7 @@
         <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
         <v>1.98</v>
@@ -3694,10 +3694,10 @@
         <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
         <v>140</v>
@@ -3706,7 +3706,7 @@
         <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>20</v>
@@ -3733,13 +3733,13 @@
         <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>95</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.3</v>
@@ -3796,7 +3796,7 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O25" t="n">
         <v>1.47</v>
@@ -3805,10 +3805,10 @@
         <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
         <v>4.5</v>
@@ -3817,28 +3817,28 @@
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
@@ -3847,22 +3847,22 @@
         <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
         <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
         <v>38</v>
@@ -3874,10 +3874,10 @@
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3913,7 +3913,7 @@
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
         <v>2.92</v>
@@ -3925,31 +3925,31 @@
         <v>3.05</v>
       </c>
       <c r="L26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P26" t="n">
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
         <v>1.84</v>
@@ -3973,7 +3973,7 @@
         <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
         <v>6.8</v>
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
         <v>170</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G28" t="n">
         <v>2.62</v>
@@ -4213,16 +4213,16 @@
         <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.45</v>
@@ -4234,10 +4234,10 @@
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>55</v>
@@ -4252,7 +4252,7 @@
         <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
@@ -4270,13 +4270,13 @@
         <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>30</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
         <v>4.4</v>
@@ -4339,7 +4339,7 @@
         <v>2.46</v>
       </c>
       <c r="O29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
         <v>1.47</v>
@@ -4366,7 +4366,7 @@
         <v>1.81</v>
       </c>
       <c r="X29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.41</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.43</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4477,43 +4477,43 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q30" t="n">
         <v>2.18</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V30" t="n">
         <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA30" t="n">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC30" t="n">
         <v>11.5</v>
@@ -4522,7 +4522,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="n">
         <v>6.8</v>
@@ -4531,10 +4531,10 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI30" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AJ30" t="n">
         <v>11.5</v>
@@ -4546,13 +4546,13 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>490</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31">
@@ -4591,7 +4591,7 @@
         <v>2.76</v>
       </c>
       <c r="I31" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J31" t="n">
         <v>2.96</v>
@@ -4609,10 +4609,10 @@
         <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
         <v>2.32</v>
@@ -4621,19 +4621,19 @@
         <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -700,7 +700,7 @@
         <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.52</v>
@@ -709,7 +709,7 @@
         <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.46</v>
@@ -718,10 +718,10 @@
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>16.5</v>
@@ -742,13 +742,13 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>15.5</v>
@@ -760,13 +760,13 @@
         <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
@@ -808,16 +808,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -850,64 +850,64 @@
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN3" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I4" t="n">
         <v>1.97</v>
@@ -979,7 +979,7 @@
         <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
@@ -1000,31 +1000,31 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>970</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AJ4" t="n">
         <v>170</v>
@@ -1033,7 +1033,7 @@
         <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
         <v>150</v>
@@ -1042,7 +1042,7 @@
         <v>120</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1120,64 +1120,64 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.65</v>
@@ -1237,10 +1237,10 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1249,7 +1249,7 @@
         <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1258,16 +1258,16 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
         <v>290</v>
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>34</v>
@@ -1288,28 +1288,28 @@
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO6" t="n">
         <v>200</v>
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1375,34 +1375,34 @@
         <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>130</v>
@@ -1414,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1429,25 +1429,25 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I8" t="n">
         <v>2.08</v>
@@ -1504,13 +1504,13 @@
         <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
@@ -1519,31 +1519,31 @@
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1561,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
@@ -1570,19 +1570,19 @@
         <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H9" t="n">
         <v>1.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
         <v>5.8</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
@@ -1654,22 +1654,22 @@
         <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>3.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -1684,7 +1684,7 @@
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -1711,13 +1711,13 @@
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
         <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
         <v>8.6</v>
@@ -1780,7 +1780,7 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
@@ -1798,13 +1798,13 @@
         <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X10" t="n">
         <v>55</v>
       </c>
       <c r="Y10" t="n">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="Z10" t="n">
         <v>200</v>
@@ -1819,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="n">
         <v>290</v>
@@ -1885,22 +1885,22 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="H11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1909,37 +1909,37 @@
         <v>7.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
         <v>130</v>
@@ -1948,13 +1948,13 @@
         <v>390</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AE11" t="n">
         <v>140</v>
@@ -1963,7 +1963,7 @@
         <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -1972,13 +1972,13 @@
         <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
@@ -1987,7 +1987,7 @@
         <v>3.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
@@ -2032,10 +2032,10 @@
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2065,7 +2065,7 @@
         <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
         <v>1.74</v>
@@ -2074,13 +2074,13 @@
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
         <v>9.800000000000001</v>
@@ -2116,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
         <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3.15</v>
@@ -2182,10 +2182,10 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
@@ -2206,7 +2206,7 @@
         <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2290,7 +2290,7 @@
         <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
@@ -2320,7 +2320,7 @@
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>1.43</v>
@@ -2329,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.16</v>
@@ -2452,7 +2452,7 @@
         <v>1.09</v>
       </c>
       <c r="P15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
         <v>1.3</v>
@@ -2464,25 +2464,25 @@
         <v>1.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="U15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V15" t="n">
         <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>55</v>
       </c>
       <c r="Y15" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>65</v>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
@@ -2512,16 +2512,16 @@
         <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
         <v>7</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2575,7 +2575,7 @@
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2587,7 +2587,7 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.42</v>
@@ -2599,7 +2599,7 @@
         <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
         <v>2.96</v>
@@ -2638,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2659,7 +2659,7 @@
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
@@ -2707,10 +2707,10 @@
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2731,7 +2731,7 @@
         <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.63</v>
@@ -2746,10 +2746,10 @@
         <v>2.12</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>44</v>
@@ -2758,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>12.5</v>
@@ -2773,10 +2773,10 @@
         <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2785,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>32</v>
@@ -2794,10 +2794,10 @@
         <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
@@ -2863,7 +2863,7 @@
         <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
         <v>2.16</v>
@@ -2872,22 +2872,22 @@
         <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AA18" t="n">
         <v>180</v>
@@ -2899,40 +2899,40 @@
         <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
         <v>2.32</v>
@@ -2980,7 +2980,7 @@
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
@@ -2995,7 +2995,7 @@
         <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.74</v>
@@ -3007,7 +3007,7 @@
         <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="V19" t="n">
         <v>1.75</v>
@@ -3025,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3055,19 +3055,19 @@
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="20">
@@ -3103,10 +3103,10 @@
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3115,7 +3115,7 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3127,34 +3127,34 @@
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
         <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>34</v>
@@ -3169,22 +3169,22 @@
         <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="AJ20" t="n">
         <v>38</v>
@@ -3196,13 +3196,13 @@
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
         <v>1.81</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3370,19 +3370,19 @@
         <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>8.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
@@ -3400,13 +3400,13 @@
         <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
         <v>1.09</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3418,10 +3418,10 @@
         <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
         <v>1000</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3457,19 +3457,19 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3520,7 +3520,7 @@
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
@@ -3535,7 +3535,7 @@
         <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3592,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
         <v>32</v>
@@ -3604,7 +3604,7 @@
         <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>120</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
         <v>1.98</v>
@@ -3646,7 +3646,7 @@
         <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3661,34 +3661,34 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3712,7 +3712,7 @@
         <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
@@ -3724,7 +3724,7 @@
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
@@ -3736,7 +3736,7 @@
         <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
         <v>16</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
@@ -3802,19 +3802,19 @@
         <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R25" t="n">
         <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
         <v>1.89</v>
@@ -3826,7 +3826,7 @@
         <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
@@ -3838,19 +3838,19 @@
         <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3859,25 +3859,25 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.92</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -3931,22 +3931,22 @@
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O26" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T26" t="n">
         <v>2.12</v>
@@ -3961,10 +3961,10 @@
         <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
         <v>16.5</v>
@@ -3973,10 +3973,10 @@
         <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD26" t="n">
         <v>13.5</v>
@@ -3991,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
@@ -4003,10 +4003,10 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
         <v>55</v>
@@ -4069,13 +4069,13 @@
         <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="P27" t="n">
         <v>1.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R27" t="n">
         <v>1.11</v>
@@ -4102,10 +4102,10 @@
         <v>9.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
         <v>6.6</v>
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AF27" t="n">
         <v>17.5</v>
@@ -4126,28 +4126,28 @@
         <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AO27" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4210,7 +4210,7 @@
         <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
@@ -4222,19 +4222,19 @@
         <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W28" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
         <v>19.5</v>
@@ -4243,16 +4243,16 @@
         <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
         <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
@@ -4276,13 +4276,13 @@
         <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
         <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4312,40 +4312,40 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
         <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M29" t="n">
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R29" t="n">
         <v>1.16</v>
@@ -4354,25 +4354,25 @@
         <v>6.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V29" t="n">
         <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA29" t="n">
         <v>130</v>
@@ -4384,10 +4384,10 @@
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4396,7 +4396,7 @@
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI29" t="n">
         <v>130</v>
@@ -4411,13 +4411,13 @@
         <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4477,7 +4477,7 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
         <v>2.18</v>
@@ -4489,19 +4489,19 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="U30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4510,7 +4510,7 @@
         <v>110</v>
       </c>
       <c r="AA30" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="AB30" t="n">
         <v>6.2</v>
@@ -4519,10 +4519,10 @@
         <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE30" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="n">
         <v>6.8</v>
@@ -4546,13 +4546,13 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>560</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>2.76</v>
@@ -4615,7 +4615,7 @@
         <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
         <v>1.22</v>
@@ -4630,13 +4630,13 @@
         <v>1.88</v>
       </c>
       <c r="V31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W31" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -691,40 +691,40 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -733,13 +733,13 @@
         <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>34</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>65</v>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.54</v>
@@ -817,10 +817,10 @@
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -835,13 +835,13 @@
         <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
         <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -853,43 +853,43 @@
         <v>2.48</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>230</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>320</v>
       </c>
       <c r="AM3" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>280</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.4</v>
       </c>
-      <c r="G4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.55</v>
@@ -967,16 +967,16 @@
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.92</v>
@@ -985,64 +985,64 @@
         <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="n">
         <v>10</v>
       </c>
-      <c r="Z4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>1.99</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,64 +1120,64 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>500</v>
       </c>
       <c r="AO5" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1216,31 +1216,31 @@
         <v>7.2</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1249,70 +1249,70 @@
         <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AA6" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
         <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1345,22 +1345,22 @@
         <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1372,7 +1372,7 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
         <v>2.22</v>
@@ -1387,67 +1387,67 @@
         <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>370</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>380</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>290</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -1519,7 +1519,7 @@
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
         <v>2.12</v>
@@ -1531,43 +1531,43 @@
         <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="n">
         <v>55</v>
@@ -1576,7 +1576,7 @@
         <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN8" t="n">
         <v>55</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>1.4</v>
@@ -1624,31 +1624,31 @@
         <v>1.42</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
         <v>2.64</v>
@@ -1657,22 +1657,22 @@
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
         <v>3.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -1696,10 +1696,10 @@
         <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
         <v>330</v>
@@ -1708,16 +1708,16 @@
         <v>140</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>17</v>
@@ -1762,16 +1762,16 @@
         <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1780,19 +1780,19 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S10" t="n">
         <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>1.05</v>
@@ -1801,58 +1801,58 @@
         <v>5.7</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="n">
         <v>390</v>
       </c>
       <c r="Z10" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD10" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AO10" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G11" t="n">
         <v>1.31</v>
       </c>
       <c r="H11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.12</v>
@@ -1915,13 +1915,13 @@
         <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
         <v>1.86</v>
       </c>
       <c r="S11" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="T11" t="n">
         <v>1.73</v>
@@ -1930,34 +1930,34 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W11" t="n">
         <v>4.2</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
         <v>130</v>
       </c>
       <c r="AA11" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
         <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="n">
         <v>11.5</v>
@@ -1969,10 +1969,10 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -1981,13 +1981,13 @@
         <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
         <v>2.36</v>
@@ -2029,100 +2029,100 @@
         <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
         <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
         <v>500</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN12" t="n">
         <v>500</v>
       </c>
-      <c r="AN12" t="n">
-        <v>26</v>
-      </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2155,43 +2155,43 @@
         <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
         <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
@@ -2200,28 +2200,28 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,25 +2233,25 @@
         <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>
@@ -2308,13 +2308,13 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
@@ -2329,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
@@ -2341,58 +2341,58 @@
         <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN14" t="n">
         <v>13</v>
       </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>14</v>
-      </c>
       <c r="AO14" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H15" t="n">
         <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.16</v>
@@ -2455,79 +2455,79 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>1.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U15" t="n">
         <v>3.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
         <v>14.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="n">
         <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AJ15" t="n">
         <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
         <v>970</v>
       </c>
-      <c r="AM15" t="n">
-        <v>200</v>
-      </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2581,7 +2581,7 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
@@ -2593,16 +2593,16 @@
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2611,58 +2611,58 @@
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
@@ -2707,7 +2707,7 @@
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.24</v>
@@ -2725,7 +2725,7 @@
         <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
         <v>1.62</v>
@@ -2740,64 +2740,64 @@
         <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X17" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF17" t="n">
         <v>30</v>
       </c>
-      <c r="Y17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>44</v>
       </c>
-      <c r="AA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>25</v>
-      </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G18" t="n">
         <v>1.49</v>
@@ -2836,7 +2836,7 @@
         <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
@@ -2851,55 +2851,55 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S18" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
       </c>
       <c r="X18" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y18" t="n">
         <v>970</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>42</v>
       </c>
       <c r="Z18" t="n">
         <v>420</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AC18" t="n">
         <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AE18" t="n">
         <v>510</v>
@@ -2917,19 +2917,19 @@
         <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO18" t="n">
         <v>200</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -2992,7 +2992,7 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q19" t="n">
         <v>1.48</v>
@@ -3007,67 +3007,67 @@
         <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
         <v>48</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3100,22 +3100,22 @@
         <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3151,28 +3151,28 @@
         <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -3181,28 +3181,28 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="n">
         <v>460</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
         <v>1.81</v>
@@ -3241,10 +3241,10 @@
         <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R22" t="n">
         <v>1.09</v>
       </c>
       <c r="S22" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,16 +3415,16 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="X22" t="n">
         <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3445,31 +3445,31 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN22" t="n">
         <v>55</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>970</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
@@ -3523,16 +3523,16 @@
         <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
         <v>2.52</v>
@@ -3541,73 +3541,73 @@
         <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y23" t="n">
         <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK23" t="n">
         <v>30</v>
       </c>
-      <c r="AK23" t="n">
-        <v>32</v>
-      </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
@@ -3661,61 +3661,61 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3724,25 +3724,25 @@
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -3796,28 +3796,28 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
@@ -3826,22 +3826,22 @@
         <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
         <v>15.5</v>
@@ -3853,28 +3853,28 @@
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AL25" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AO25" t="n">
         <v>970</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G26" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.15</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
@@ -3934,10 +3934,10 @@
         <v>2.74</v>
       </c>
       <c r="O26" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P26" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q26" t="n">
         <v>2.76</v>
@@ -3952,7 +3952,7 @@
         <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V26" t="n">
         <v>1.52</v>
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
         <v>180</v>
@@ -4045,19 +4045,19 @@
         <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -4066,43 +4066,43 @@
         <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.81</v>
       </c>
       <c r="P27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
         <v>1.11</v>
       </c>
       <c r="S27" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="n">
         <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X27" t="n">
         <v>6.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AA27" t="n">
         <v>500</v>
@@ -4114,25 +4114,25 @@
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AE27" t="n">
         <v>500</v>
       </c>
       <c r="AF27" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AI27" t="n">
         <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AK27" t="n">
         <v>500</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.64</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.66</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4219,7 +4219,7 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>55</v>
@@ -4255,13 +4255,13 @@
         <v>38</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>100</v>
@@ -4318,7 +4318,7 @@
         <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
         <v>4.5</v>
@@ -4336,7 +4336,7 @@
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
         <v>1.69</v>
@@ -4354,7 +4354,7 @@
         <v>6.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U29" t="n">
         <v>1.66</v>
@@ -4366,16 +4366,16 @@
         <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
         <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB29" t="n">
         <v>6.4</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
         <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4471,19 +4471,19 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
@@ -4495,16 +4495,16 @@
         <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z30" t="n">
         <v>110</v>
@@ -4513,7 +4513,7 @@
         <v>590</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC30" t="n">
         <v>11.5</v>
@@ -4534,10 +4534,10 @@
         <v>42</v>
       </c>
       <c r="AI30" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
@@ -4585,7 +4585,7 @@
         <v>2.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
         <v>2.76</v>
@@ -4609,13 +4609,13 @@
         <v>2.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
         <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
         <v>1.22</v>
@@ -4639,55 +4639,55 @@
         <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN31" t="n">
         <v>46</v>
       </c>
-      <c r="AF31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>50</v>
-      </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -685,13 +685,13 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -700,13 +700,13 @@
         <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.63</v>
@@ -715,28 +715,28 @@
         <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>14</v>
@@ -745,19 +745,19 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
         <v>7.4</v>
@@ -811,7 +811,7 @@
         <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -844,10 +844,10 @@
         <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>2.48</v>
@@ -874,10 +874,10 @@
         <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>230</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
         <v>1.98</v>
@@ -976,16 +976,16 @@
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
         <v>1.22</v>
@@ -994,7 +994,7 @@
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1003,16 +1003,16 @@
         <v>42</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
         <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.28</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>2.88</v>
@@ -1102,28 +1102,28 @@
         <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1141,19 +1141,19 @@
         <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1162,10 +1162,10 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK5" t="n">
         <v>230</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>70</v>
       </c>
       <c r="AL5" t="n">
         <v>310</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="n">
         <v>25</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1231,25 +1231,25 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1258,34 +1258,34 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1297,22 +1297,22 @@
         <v>520</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.48</v>
@@ -1381,13 +1381,13 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1396,7 +1396,7 @@
         <v>1.9</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>13.5</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
@@ -1420,7 +1420,7 @@
         <v>370</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1429,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>27</v>
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.95</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1528,7 +1528,7 @@
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X8" t="n">
         <v>16.5</v>
@@ -1618,10 +1618,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J9" t="n">
         <v>5.5</v>
@@ -1642,37 +1642,37 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.11</v>
       </c>
       <c r="X9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -1696,13 +1696,13 @@
         <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>140</v>
@@ -1753,13 +1753,13 @@
         <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1783,7 +1783,7 @@
         <v>1.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="n">
         <v>1.87</v>
@@ -1807,7 +1807,7 @@
         <v>390</v>
       </c>
       <c r="Z10" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1843,16 +1843,16 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
         <v>1.31</v>
@@ -1894,7 +1894,7 @@
         <v>12.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>7.4</v>
@@ -1918,10 +1918,10 @@
         <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
         <v>1.73</v>
@@ -1957,10 +1957,10 @@
         <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1987,7 +1987,7 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
         <v>3.55</v>
@@ -2167,7 +2167,7 @@
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2194,7 +2194,7 @@
         <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2329,16 +2329,16 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
         <v>17</v>
@@ -2347,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
         <v>260</v>
@@ -2362,13 +2362,13 @@
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="n">
         <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
@@ -2380,7 +2380,7 @@
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
         <v>1.97</v>
@@ -2437,7 +2437,7 @@
         <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.16</v>
@@ -2455,7 +2455,7 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
         <v>2.08</v>
@@ -2560,13 +2560,13 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2587,22 +2587,22 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
         <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2629,7 +2629,7 @@
         <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>46</v>
@@ -2656,13 +2656,13 @@
         <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2707,7 +2707,7 @@
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.24</v>
@@ -2722,7 +2722,7 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q17" t="n">
         <v>1.55</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
         <v>1.49</v>
@@ -2842,7 +2842,7 @@
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2854,28 +2854,28 @@
         <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2908,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>40</v>
@@ -2917,7 +2917,7 @@
         <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -2992,7 +2992,7 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q19" t="n">
         <v>1.48</v>
@@ -3028,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3052,7 +3052,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
         <v>2.28</v>
@@ -3109,7 +3109,7 @@
         <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
         <v>4.8</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G22" t="n">
         <v>1.77</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I22" t="n">
         <v>8.199999999999999</v>
@@ -3382,7 +3382,7 @@
         <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q22" t="n">
         <v>1.99</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -3535,22 +3535,22 @@
         <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
         <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
         <v>1.9</v>
@@ -3559,7 +3559,7 @@
         <v>9.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>36</v>
@@ -3577,10 +3577,10 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
@@ -3592,10 +3592,10 @@
         <v>240</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>150</v>
@@ -3676,7 +3676,7 @@
         <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
         <v>1.94</v>
@@ -3787,7 +3787,7 @@
         <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3799,10 +3799,10 @@
         <v>2.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
         <v>2.48</v>
@@ -3946,10 +3946,10 @@
         <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U26" t="n">
         <v>1.85</v>
@@ -4084,7 +4084,7 @@
         <v>8.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U27" t="n">
         <v>1.57</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4225,19 +4225,19 @@
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>55</v>
@@ -4279,10 +4279,10 @@
         <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -4336,7 +4336,7 @@
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O29" t="n">
         <v>1.69</v>
@@ -4360,7 +4360,7 @@
         <v>1.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
         <v>1.8</v>
@@ -4408,7 +4408,7 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
         <v>270</v>
@@ -4471,16 +4471,16 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O30" t="n">
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
@@ -4489,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U30" t="n">
         <v>1.6</v>
@@ -4501,7 +4501,7 @@
         <v>3.4</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>27</v>
@@ -4534,7 +4534,7 @@
         <v>42</v>
       </c>
       <c r="AI30" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AJ30" t="n">
         <v>10.5</v>
@@ -4594,7 +4594,7 @@
         <v>3.15</v>
       </c>
       <c r="J31" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4618,7 +4618,7 @@
         <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
         <v>4.2</v>
@@ -4627,7 +4627,7 @@
         <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V31" t="n">
         <v>1.47</v>
@@ -4669,16 +4669,16 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AM31" t="n">
         <v>500</v>
@@ -4687,7 +4687,7 @@
         <v>46</v>
       </c>
       <c r="AO31" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -682,7 +682,7 @@
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V2" t="n">
         <v>1.41</v>
@@ -721,7 +721,7 @@
         <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>16.5</v>
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,49 +835,49 @@
         <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
         <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>230</v>
@@ -886,10 +886,10 @@
         <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -940,61 +940,61 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
         <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1006,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12.5</v>
@@ -1021,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
         <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1153,31 +1153,31 @@
         <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
         <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1210,67 +1210,67 @@
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H6" t="n">
         <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="n">
         <v>8</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
         <v>150</v>
@@ -1291,28 +1291,28 @@
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>520</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1345,55 +1345,55 @@
         <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
         <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
@@ -1402,22 +1402,22 @@
         <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1426,28 +1426,28 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
         <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>1.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
         <v>16.5</v>
@@ -1543,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>18.5</v>
@@ -1567,22 +1567,22 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="n">
         <v>55</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J9" t="n">
         <v>5.5</v>
@@ -1630,46 +1630,46 @@
         <v>5.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W9" t="n">
         <v>1.11</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -1678,13 +1678,13 @@
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -1693,19 +1693,19 @@
         <v>85</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="n">
         <v>120</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AO9" t="n">
         <v>5.6</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>5.7</v>
@@ -1804,37 +1804,37 @@
         <v>95</v>
       </c>
       <c r="Y10" t="n">
-        <v>390</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -1843,16 +1843,16 @@
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11">
@@ -1885,64 +1885,64 @@
         <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="n">
         <v>400</v>
@@ -1951,22 +1951,22 @@
         <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AE11" t="n">
         <v>140</v>
       </c>
       <c r="AF11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>230</v>
@@ -1978,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
         <v>330</v>
@@ -1987,7 +1987,7 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2020,40 +2020,40 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
         <v>4.3</v>
@@ -2065,13 +2065,13 @@
         <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
@@ -2113,7 +2113,7 @@
         <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2155,10 +2155,10 @@
         <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
         <v>2.62</v>
@@ -2170,40 +2170,40 @@
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2218,7 +2218,7 @@
         <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2242,7 +2242,7 @@
         <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
@@ -2290,13 +2290,13 @@
         <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2305,49 +2305,49 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
         <v>260</v>
@@ -2356,7 +2356,7 @@
         <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
@@ -2374,13 +2374,13 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
         <v>40</v>
@@ -2422,76 +2422,76 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="R15" t="n">
         <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T15" t="n">
         <v>1.37</v>
       </c>
       <c r="U15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="V15" t="n">
         <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
         <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>38</v>
@@ -2527,7 +2527,7 @@
         <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2587,16 +2587,16 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
         <v>1.46</v>
@@ -2611,7 +2611,7 @@
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
         <v>44</v>
@@ -2623,7 +2623,7 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
@@ -2635,10 +2635,10 @@
         <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
         <v>14.5</v>
@@ -2647,22 +2647,22 @@
         <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,46 +2692,46 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.63</v>
@@ -2743,7 +2743,7 @@
         <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
         <v>75</v>
@@ -2758,7 +2758,7 @@
         <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
@@ -2791,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>8.199999999999999</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
         <v>1.49</v>
@@ -2836,16 +2836,16 @@
         <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2854,28 +2854,28 @@
         <v>6.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
         <v>2.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="S18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>420</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
         <v>25</v>
@@ -2965,25 +2965,25 @@
         <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
         <v>2.16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>6.4</v>
@@ -2992,16 +2992,16 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S19" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="T19" t="n">
         <v>1.5</v>
@@ -3013,13 +3013,13 @@
         <v>1.86</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3031,7 +3031,7 @@
         <v>25</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>12</v>
@@ -3043,7 +3043,7 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>14.5</v>
@@ -3055,7 +3055,7 @@
         <v>150</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
@@ -3106,37 +3106,37 @@
         <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.97</v>
@@ -3151,7 +3151,7 @@
         <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
         <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.63</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>500</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -3535,13 +3535,13 @@
         <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.14</v>
@@ -3550,10 +3550,10 @@
         <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
         <v>9.6</v>
@@ -3562,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
         <v>900</v>
@@ -3574,7 +3574,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
         <v>190</v>
@@ -3592,7 +3592,7 @@
         <v>240</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G24" t="n">
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3655,13 +3655,13 @@
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
@@ -3670,37 +3670,37 @@
         <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
         <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="n">
         <v>8.199999999999999</v>
@@ -3709,10 +3709,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
@@ -3721,10 +3721,10 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
         <v>22</v>
@@ -3733,16 +3733,16 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3772,55 +3772,55 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.2</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
         <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
         <v>1.6</v>
@@ -3829,16 +3829,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -3853,19 +3853,19 @@
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AK25" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
         <v>150</v>
@@ -3874,7 +3874,7 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AO25" t="n">
         <v>970</v>
@@ -3916,7 +3916,7 @@
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -3925,16 +3925,16 @@
         <v>3.05</v>
       </c>
       <c r="L26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P26" t="n">
         <v>1.55</v>
@@ -3943,10 +3943,10 @@
         <v>2.76</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T26" t="n">
         <v>2.14</v>
@@ -3961,16 +3961,16 @@
         <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y26" t="n">
         <v>8.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
         <v>8.6</v>
@@ -3991,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
         <v>180</v>
@@ -4012,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.76</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O27" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="T27" t="n">
         <v>2.54</v>
       </c>
       <c r="U27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.57</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.56</v>
       </c>
       <c r="X27" t="n">
         <v>6.2</v>
@@ -4108,7 +4108,7 @@
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
@@ -4126,7 +4126,7 @@
         <v>42</v>
       </c>
       <c r="AH27" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
         <v>500</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4195,13 +4195,13 @@
         <v>3.35</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.43</v>
@@ -4213,37 +4213,37 @@
         <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
         <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4255,22 +4255,22 @@
         <v>38</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
         <v>48</v>
@@ -4279,10 +4279,10 @@
         <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
         <v>2.24</v>
@@ -4330,13 +4330,13 @@
         <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
         <v>1.69</v>
@@ -4351,7 +4351,7 @@
         <v>1.16</v>
       </c>
       <c r="S29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
         <v>2.44</v>
@@ -4366,10 +4366,10 @@
         <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
         <v>28</v>
@@ -4378,16 +4378,16 @@
         <v>120</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4396,7 +4396,7 @@
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>130</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K30" t="n">
         <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4474,70 +4474,70 @@
         <v>3.45</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="U30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
         <v>110</v>
       </c>
       <c r="AA30" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="n">
         <v>6.8</v>
       </c>
       <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>10.5</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
@@ -4546,13 +4546,13 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO30" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31">
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
         <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>10.5</v>
@@ -4642,7 +4642,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
         <v>55</v>
@@ -4657,13 +4657,13 @@
         <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
         <v>21</v>
@@ -4672,7 +4672,7 @@
         <v>170</v>
       </c>
       <c r="AJ31" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AK31" t="n">
         <v>40</v>
@@ -4681,13 +4681,13 @@
         <v>170</v>
       </c>
       <c r="AM31" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN31" t="n">
         <v>500</v>
       </c>
-      <c r="AN31" t="n">
-        <v>46</v>
-      </c>
       <c r="AO31" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>2.68</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>5.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.48</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>490</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>490</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>490</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
         <v>4.3</v>
@@ -826,22 +826,22 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S3" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -850,7 +850,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.17</v>
@@ -862,16 +862,16 @@
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
         <v>9</v>
@@ -892,13 +892,13 @@
         <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK3" t="n">
         <v>400</v>
       </c>
       <c r="AL3" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
@@ -907,7 +907,7 @@
         <v>280</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.42</v>
@@ -961,22 +961,22 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.92</v>
@@ -985,43 +985,43 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W4" t="n">
         <v>1.23</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.87</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.79</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.8</v>
@@ -1147,28 +1147,28 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1177,7 +1177,7 @@
         <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
         <v>8.800000000000001</v>
@@ -1222,7 +1222,7 @@
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1234,13 +1234,13 @@
         <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1249,31 +1249,31 @@
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>310</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
@@ -1285,22 +1285,22 @@
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
         <v>520</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>40</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
         <v>2.08</v>
@@ -1354,10 +1354,10 @@
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.51</v>
@@ -1378,7 +1378,7 @@
         <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>4.5</v>
@@ -1387,7 +1387,7 @@
         <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
         <v>1.28</v>
@@ -1420,7 +1420,7 @@
         <v>170</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1429,7 +1429,7 @@
         <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>46</v>
@@ -1447,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G8" t="n">
         <v>4.3</v>
@@ -1504,16 +1504,16 @@
         <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3.25</v>
@@ -1531,7 +1531,7 @@
         <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1561,13 +1561,13 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
@@ -1579,7 +1579,7 @@
         <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>14</v>
@@ -1615,19 +1615,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="J9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
@@ -1648,40 +1648,40 @@
         <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T9" t="n">
         <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
         <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
         <v>10</v>
@@ -1690,34 +1690,34 @@
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AK9" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM9" t="n">
         <v>130</v>
       </c>
-      <c r="AL9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>140</v>
       </c>
-      <c r="AN9" t="n">
-        <v>160</v>
-      </c>
       <c r="AO9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
         <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J10" t="n">
         <v>8.6</v>
@@ -1765,31 +1765,31 @@
         <v>9.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.84</v>
@@ -1801,7 +1801,7 @@
         <v>5.7</v>
       </c>
       <c r="X10" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>65</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
         <v>21</v>
@@ -1822,25 +1822,25 @@
         <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>38</v>
@@ -1849,7 +1849,7 @@
         <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO10" t="n">
         <v>310</v>
@@ -1888,16 +1888,16 @@
         <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.23</v>
@@ -1915,19 +1915,19 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
         <v>1.89</v>
       </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
@@ -1939,7 +1939,7 @@
         <v>38</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
         <v>120</v>
@@ -1948,19 +1948,19 @@
         <v>400</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AE11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,22 +1969,22 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO11" t="n">
         <v>110</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
         <v>2.34</v>
@@ -2026,7 +2026,7 @@
         <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2053,13 +2053,13 @@
         <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
@@ -2080,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
@@ -2113,7 +2113,7 @@
         <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
@@ -2122,7 +2122,7 @@
         <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2158,16 +2158,16 @@
         <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2182,10 +2182,10 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2290,79 +2290,79 @@
         <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
         <v>13.5</v>
@@ -2371,28 +2371,28 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
@@ -2461,19 +2461,19 @@
         <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T15" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
         <v>3.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2491,7 +2491,7 @@
         <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
         <v>38</v>
@@ -2500,34 +2500,34 @@
         <v>970</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="n">
         <v>970</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>38</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>970</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q16" t="n">
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.01</v>
@@ -2623,16 +2623,16 @@
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
@@ -2659,10 +2659,10 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
         <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
         <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
         <v>75</v>
       </c>
       <c r="Y17" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
         <v>110</v>
@@ -2761,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>36</v>
@@ -2779,7 +2779,7 @@
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AJ17" t="n">
         <v>44</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO17" t="n">
         <v>970</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>6.8</v>
@@ -2839,13 +2839,13 @@
         <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2860,16 +2860,16 @@
         <v>2.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
         <v>2.32</v>
@@ -2881,19 +2881,19 @@
         <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="n">
         <v>420</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
         <v>13.5</v>
@@ -2917,7 +2917,7 @@
         <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -2929,7 +2929,7 @@
         <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO18" t="n">
         <v>200</v>
@@ -2971,7 +2971,7 @@
         <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="n">
         <v>3.95</v>
@@ -2986,31 +2986,31 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q19" t="n">
         <v>1.49</v>
       </c>
       <c r="R19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="V19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3028,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3040,7 +3040,7 @@
         <v>19.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3061,10 +3061,10 @@
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
@@ -3100,7 +3100,7 @@
         <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
@@ -3109,7 +3109,7 @@
         <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>3.5</v>
@@ -3130,16 +3130,16 @@
         <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
         <v>1.89</v>
@@ -3148,7 +3148,7 @@
         <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3199,10 +3199,10 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H21" t="n">
         <v>4.4</v>
@@ -3244,10 +3244,10 @@
         <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3385,28 +3385,28 @@
         <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.06</v>
@@ -3421,7 +3421,7 @@
         <v>2.36</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
@@ -3433,7 +3433,7 @@
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3445,19 +3445,19 @@
         <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -3511,10 +3511,10 @@
         <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
@@ -3526,28 +3526,28 @@
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
         <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3595,7 +3595,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
         <v>150</v>
@@ -3604,7 +3604,7 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
         <v>500</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
@@ -3661,16 +3661,16 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.31</v>
@@ -3685,40 +3685,40 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3727,7 +3727,7 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -3739,10 +3739,10 @@
         <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.3</v>
@@ -3796,10 +3796,10 @@
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
         <v>1.61</v>
@@ -3814,37 +3814,37 @@
         <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>230</v>
@@ -3853,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -3862,10 +3862,10 @@
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AL25" t="n">
         <v>150</v>
@@ -3874,7 +3874,7 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
         <v>970</v>
@@ -3916,7 +3916,7 @@
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -3925,13 +3925,13 @@
         <v>3.05</v>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -3952,7 +3952,7 @@
         <v>2.14</v>
       </c>
       <c r="U26" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
         <v>1.52</v>
@@ -3970,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="n">
         <v>8.6</v>
@@ -4045,37 +4045,37 @@
         <v>2.64</v>
       </c>
       <c r="G27" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K27" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="L27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M27" t="n">
         <v>1.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R27" t="n">
         <v>1.12</v>
@@ -4084,7 +4084,7 @@
         <v>8.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="U27" t="n">
         <v>1.58</v>
@@ -4093,16 +4093,16 @@
         <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
         <v>6.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>500</v>
@@ -4111,31 +4111,31 @@
         <v>6.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="n">
         <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AL27" t="n">
         <v>500</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.72</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.74</v>
-      </c>
       <c r="H28" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4201,7 +4201,7 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
         <v>1.43</v>
@@ -4210,7 +4210,7 @@
         <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.27</v>
@@ -4219,22 +4219,22 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
         <v>18</v>
@@ -4243,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
@@ -4276,13 +4276,13 @@
         <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.05</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M29" t="n">
         <v>1.16</v>
@@ -4345,10 +4345,10 @@
         <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4357,40 +4357,40 @@
         <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>7.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -4399,25 +4399,25 @@
         <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
         <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.42</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4474,7 +4474,7 @@
         <v>3.45</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
         <v>1.82</v>
@@ -4492,16 +4492,16 @@
         <v>2.48</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V30" t="n">
         <v>1.1</v>
       </c>
       <c r="W30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4534,7 +4534,7 @@
         <v>38</v>
       </c>
       <c r="AI30" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -4546,7 +4546,7 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="n">
         <v>8.800000000000001</v>
@@ -4582,37 +4582,37 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
         <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q31" t="n">
         <v>2.42</v>
@@ -4621,25 +4621,25 @@
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W31" t="n">
         <v>1.51</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z31" t="n">
         <v>19</v>
@@ -4648,7 +4648,7 @@
         <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
@@ -4657,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AF31" t="n">
         <v>18.5</v>
@@ -4675,19 +4675,19 @@
         <v>150</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AO31" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:40:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>1.56</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.16</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>2.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>490</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="AK2" t="n">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.33</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.22</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.17</v>
-      </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
         <v>23</v>
       </c>
-      <c r="Z3" t="n">
-        <v>16</v>
-      </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>23</v>
       </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK3" t="n">
         <v>230</v>
       </c>
-      <c r="AG3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>400</v>
-      </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -923,117 +923,117 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I4" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="n">
         <v>23</v>
       </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>980</v>
-      </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AL4" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,13 +1042,13 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB5" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>25</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
+        <v>520</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>190</v>
-      </c>
       <c r="AK5" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>8.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>1.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.28</v>
       </c>
-      <c r="W7" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AK7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>260</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.92</v>
+        <v>3.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="AK8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.800000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.42</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.43</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="n">
-        <v>2.76</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>5.6</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="AE9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
         <v>14</v>
       </c>
-      <c r="AF9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>310</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>290</v>
-      </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.8</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -1738,43 +1738,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="G10" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
         <v>3.35</v>
@@ -1783,82 +1783,82 @@
         <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.3</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>1.32</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X11" t="n">
         <v>11</v>
       </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC11" t="n">
         <v>7.6</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AD11" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.7</v>
+        <v>500</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.42</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="Z12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.46</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>980</v>
-      </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>2.02</v>
       </c>
       <c r="G14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.08</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
         <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.01</v>
       </c>
-      <c r="N15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM15" t="n">
         <v>970</v>
       </c>
-      <c r="Y15" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>580</v>
-      </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>44</v>
       </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>160</v>
-      </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="X17" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="AL17" t="n">
-        <v>80</v>
-      </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>46</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
         <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
         <v>5.7</v>
@@ -2863,22 +2863,22 @@
         <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X18" t="n">
         <v>80</v>
@@ -2920,7 +2920,7 @@
         <v>14.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>3.85</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>2.84</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>2.94</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.5</v>
+        <v>440</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN19" t="n">
         <v>36</v>
       </c>
-      <c r="AM19" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="G21" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -3358,73 +3358,73 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="n">
         <v>55</v>
@@ -3433,52 +3433,52 @@
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK22" t="n">
         <v>25</v>
       </c>
-      <c r="AI22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="P24" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="X25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA25" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK25" t="n">
         <v>48</v>
       </c>
-      <c r="AK25" t="n">
-        <v>120</v>
-      </c>
       <c r="AL25" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AO25" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.88</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="N26" t="n">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="O26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.57</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X26" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AO26" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="W27" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH27" t="n">
-        <v>36</v>
-      </c>
       <c r="AI27" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="G28" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK28" t="n">
         <v>38</v>
       </c>
-      <c r="AF28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>32</v>
-      </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>1.41</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="T29" t="n">
         <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="X29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF29" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,260 +4433,125 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>2.98</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="U30" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="V30" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="W30" t="n">
-        <v>3.35</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
         <v>14</v>
       </c>
-      <c r="Y30" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM30" t="n">
         <v>580</v>
       </c>
-      <c r="AB30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>300</v>
-      </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO31" t="n">
         <v>50</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="I2" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="J2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.3</v>
       </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF2" t="n">
         <v>980</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>130</v>
       </c>
       <c r="AG2" t="n">
         <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -808,13 +808,13 @@
         <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="I3" t="n">
         <v>1.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -826,13 +826,13 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -841,55 +841,55 @@
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
         <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W3" t="n">
         <v>1.22</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>65</v>
-      </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
@@ -907,7 +907,7 @@
         <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -949,7 +949,7 @@
         <v>1.89</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
@@ -961,13 +961,13 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -979,10 +979,10 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
         <v>2.12</v>
@@ -1030,7 +1030,7 @@
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AL4" t="n">
         <v>260</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
         <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1096,16 +1096,16 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
         <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.39</v>
@@ -1117,67 +1117,67 @@
         <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
         <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
         <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
         <v>8.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1213,16 +1213,16 @@
         <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.52</v>
@@ -1231,58 +1231,58 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
         <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1294,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1303,16 +1303,16 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="I7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1369,13 +1369,13 @@
         <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
@@ -1390,10 +1390,10 @@
         <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
@@ -1408,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
@@ -1420,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
@@ -1432,22 +1432,22 @@
         <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
         <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="J8" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG8" t="n">
         <v>38</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>36</v>
-      </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="n">
         <v>260</v>
@@ -1579,10 +1579,10 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
         <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
         <v>8.6</v>
@@ -1636,16 +1636,16 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
         <v>1.97</v>
@@ -1657,22 +1657,22 @@
         <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>95</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,40 +1684,40 @@
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.23</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.74</v>
@@ -1798,43 +1798,43 @@
         <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="n">
         <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -1843,16 +1843,16 @@
         <v>12.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1909,10 +1909,10 @@
         <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.28</v>
@@ -1924,28 +1924,28 @@
         <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
         <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
         <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>8.4</v>
@@ -1954,10 +1954,10 @@
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -1966,16 +1966,16 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>190</v>
@@ -1984,7 +1984,7 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2023,7 +2023,7 @@
         <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
         <v>2.62</v>
@@ -2041,10 +2041,10 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
         <v>1.79</v>
@@ -2056,13 +2056,13 @@
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
         <v>1.61</v>
@@ -2074,10 +2074,10 @@
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
         <v>36</v>
@@ -2086,13 +2086,13 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2104,13 +2104,13 @@
         <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
         <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
@@ -2167,7 +2167,7 @@
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2179,28 +2179,28 @@
         <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
         <v>1.92</v>
@@ -2209,13 +2209,13 @@
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2227,31 +2227,31 @@
         <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
       </c>
       <c r="J14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>9.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P14" t="n">
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
         <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2446,28 +2446,28 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.98</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2476,58 +2476,58 @@
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
         <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
@@ -2569,7 +2569,7 @@
         <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
@@ -2581,88 +2581,88 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
         <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
         <v>2.28</v>
@@ -2716,46 +2716,46 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R17" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="T17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>24</v>
@@ -2767,10 +2767,10 @@
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>15.5</v>
@@ -2782,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
@@ -2791,13 +2791,13 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
         <v>6.8</v>
@@ -2839,97 +2839,97 @@
         <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
         <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Z18" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>510</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO18" t="n">
         <v>200</v>
@@ -2962,76 +2962,76 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
         <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.54</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
         <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
         <v>38</v>
@@ -3040,31 +3040,31 @@
         <v>440</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="n">
         <v>460</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="n">
         <v>600</v>
@@ -3100,19 +3100,19 @@
         <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
         <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3262,7 +3262,7 @@
         <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
         <v>2.16</v>
@@ -3283,7 +3283,7 @@
         <v>1.16</v>
       </c>
       <c r="W21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3310,7 +3310,7 @@
         <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3322,7 +3322,7 @@
         <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
@@ -3391,16 +3391,16 @@
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P22" t="n">
         <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R22" t="n">
         <v>1.2</v>
@@ -3412,7 +3412,7 @@
         <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V22" t="n">
         <v>1.18</v>
@@ -3424,19 +3424,19 @@
         <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA22" t="n">
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>27</v>
@@ -3445,31 +3445,31 @@
         <v>290</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO22" t="n">
         <v>600</v>
@@ -3502,34 +3502,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.45</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
         <v>1.82</v>
@@ -3538,76 +3538,76 @@
         <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H24" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O24" t="n">
         <v>1.51</v>
@@ -3670,7 +3670,7 @@
         <v>1.61</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R24" t="n">
         <v>1.22</v>
@@ -3679,70 +3679,70 @@
         <v>5.3</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM24" t="n">
         <v>160</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>320</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>580</v>
-      </c>
       <c r="AN24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO24" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
         <v>3.15</v>
@@ -3790,25 +3790,25 @@
         <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
         <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
         <v>5.8</v>
@@ -3817,7 +3817,7 @@
         <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V25" t="n">
         <v>1.53</v>
@@ -3826,10 +3826,10 @@
         <v>1.46</v>
       </c>
       <c r="X25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z25" t="n">
         <v>16</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
         <v>2.74</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K26" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="L26" t="n">
         <v>1.79</v>
@@ -3934,13 +3934,13 @@
         <v>2.14</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P26" t="n">
         <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R26" t="n">
         <v>1.12</v>
@@ -3958,13 +3958,13 @@
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
         <v>22</v>
@@ -3973,7 +3973,7 @@
         <v>500</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
@@ -3982,13 +3982,13 @@
         <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG26" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>18.5</v>
       </c>
       <c r="AH26" t="n">
         <v>36</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.72</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.74</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -4072,28 +4072,28 @@
         <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
         <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
         <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
@@ -4105,28 +4105,28 @@
         <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
         <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>48</v>
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.38</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.4</v>
-      </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
         <v>2.98</v>
@@ -4219,31 +4219,31 @@
         <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z28" t="n">
         <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
@@ -4279,7 +4279,7 @@
         <v>260</v>
       </c>
       <c r="AN28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO28" t="n">
         <v>130</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="n">
         <v>5.1</v>
@@ -4336,61 +4336,61 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA29" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>10.5</v>
@@ -4399,25 +4399,25 @@
         <v>38</v>
       </c>
       <c r="AI29" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="G30" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
         <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.53</v>
@@ -4474,25 +4474,25 @@
         <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
         <v>2.44</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V30" t="n">
         <v>1.48</v>
@@ -4501,7 +4501,7 @@
         <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9.6</v>
@@ -4513,7 +4513,7 @@
         <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC30" t="n">
         <v>7.4</v>
@@ -4540,19 +4540,19 @@
         <v>150</v>
       </c>
       <c r="AK30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO30" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.81</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>880</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.22</v>
+        <v>21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>540</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>540</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>870</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
@@ -937,73 +937,73 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
         <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
@@ -1012,28 +1012,28 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AL4" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1237,55 +1237,55 @@
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1294,25 +1294,25 @@
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
         <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="n">
         <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1372,22 +1372,22 @@
         <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.98</v>
@@ -1396,7 +1396,7 @@
         <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1438,13 +1438,13 @@
         <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="AN7" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1483,70 +1483,70 @@
         <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="I8" t="n">
         <v>1.36</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>6.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="W8" t="n">
         <v>1.09</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
@@ -1555,34 +1555,34 @@
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>960</v>
       </c>
       <c r="AG8" t="n">
         <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AK8" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H9" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L9" t="n">
         <v>1.22</v>
@@ -1636,88 +1636,88 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
         <v>95</v>
       </c>
       <c r="Y9" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="AF9" t="n">
         <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="AO9" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="X10" t="n">
         <v>50</v>
       </c>
       <c r="Y10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="n">
         <v>290</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>100</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.3</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.45</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.43</v>
@@ -1915,25 +1915,25 @@
         <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
@@ -1951,25 +1951,25 @@
         <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
         <v>80</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2017,70 +2017,70 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -2092,37 +2092,37 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK12" t="n">
         <v>980</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
         <v>40</v>
       </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>42</v>
-      </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2176,37 +2176,37 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.16</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>16</v>
@@ -2218,19 +2218,19 @@
         <v>170</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11.5</v>
@@ -2239,7 +2239,7 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2254,10 +2254,10 @@
         <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2314,16 +2314,16 @@
         <v>9.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S14" t="n">
         <v>1.86</v>
@@ -2332,13 +2332,13 @@
         <v>1.38</v>
       </c>
       <c r="U14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
         <v>44</v>
@@ -2347,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
@@ -2362,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
         <v>22</v>
@@ -2371,13 +2371,13 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
         <v>18</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
         <v>2.98</v>
@@ -2443,25 +2443,25 @@
         <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q15" t="n">
         <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T15" t="n">
         <v>1.47</v>
@@ -2476,19 +2476,19 @@
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z15" t="n">
         <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2500,7 +2500,7 @@
         <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2521,13 +2521,13 @@
         <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="AN15" t="n">
         <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
         <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -2590,7 +2590,7 @@
         <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>1.6</v>
@@ -2602,7 +2602,7 @@
         <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
@@ -2611,16 +2611,16 @@
         <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
@@ -2629,40 +2629,40 @@
         <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="U17" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO17" t="n">
         <v>32</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="18">
@@ -2830,106 +2830,106 @@
         <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>200</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2980,70 +2980,70 @@
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.68</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>440</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>44</v>
@@ -3052,10 +3052,10 @@
         <v>460</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
         <v>150</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
         <v>600</v>
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.73</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>1.76</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3259,73 +3259,73 @@
         <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q21" t="n">
         <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF21" t="n">
         <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL21" t="n">
         <v>48</v>
@@ -3334,10 +3334,10 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
@@ -3370,13 +3370,13 @@
         <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H22" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
@@ -3391,85 +3391,85 @@
         <v>1.12</v>
       </c>
       <c r="N22" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="V22" t="n">
         <v>1.18</v>
       </c>
       <c r="W22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="n">
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC22" t="n">
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>290</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>600</v>
@@ -3502,52 +3502,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
         <v>1.32</v>
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
@@ -3577,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>65</v>
@@ -3601,13 +3601,13 @@
         <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,52 +3637,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.1</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.84</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
         <v>1.45</v>
@@ -3691,58 +3691,58 @@
         <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
         <v>3.15</v>
@@ -3790,34 +3790,34 @@
         <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P25" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="R25" t="n">
         <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
         <v>1.53</v>
@@ -3838,7 +3838,7 @@
         <v>48</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
         <v>6.8</v>
@@ -3853,7 +3853,7 @@
         <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -3871,7 +3871,7 @@
         <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
         <v>60</v>
@@ -3907,67 +3907,67 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.74</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.76</v>
       </c>
       <c r="K26" t="n">
         <v>2.84</v>
       </c>
       <c r="L26" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="M26" t="n">
         <v>1.2</v>
       </c>
       <c r="N26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S26" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="T26" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>500</v>
@@ -3976,16 +3976,16 @@
         <v>6.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
         <v>15.5</v>
@@ -3997,10 +3997,10 @@
         <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
         <v>500</v>
@@ -4009,7 +4009,7 @@
         <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="AO26" t="n">
         <v>600</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4060,7 +4060,7 @@
         <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -4069,55 +4069,55 @@
         <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
         <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U27" t="n">
         <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X27" t="n">
         <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
         <v>15.5</v>
@@ -4129,10 +4129,10 @@
         <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J28" t="n">
         <v>2.98</v>
@@ -4195,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M28" t="n">
         <v>1.16</v>
@@ -4216,10 +4216,10 @@
         <v>1.15</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -4228,10 +4228,10 @@
         <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>9.6</v>
@@ -4240,7 +4240,7 @@
         <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB28" t="n">
         <v>6.4</v>
@@ -4249,7 +4249,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
         <v>80</v>
@@ -4312,37 +4312,37 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.41</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
         <v>5.1</v>
       </c>
-      <c r="K29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q29" t="n">
         <v>2.12</v>
@@ -4354,16 +4354,16 @@
         <v>3.95</v>
       </c>
       <c r="T29" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
         <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -4372,13 +4372,13 @@
         <v>27</v>
       </c>
       <c r="Z29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
         <v>11.5</v>
@@ -4387,13 +4387,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>38</v>
@@ -4402,7 +4402,7 @@
         <v>230</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK29" t="n">
         <v>17.5</v>
@@ -4411,13 +4411,13 @@
         <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>330</v>
+        <v>740</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
         <v>1.53</v>
@@ -4477,7 +4477,7 @@
         <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
         <v>2.44</v>
@@ -4492,22 +4492,22 @@
         <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
         <v>1.48</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA30" t="n">
         <v>55</v>
@@ -4528,7 +4528,7 @@
         <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="U2" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.9</v>
+        <v>650</v>
       </c>
       <c r="AD2" t="n">
         <v>880</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="AG2" t="n">
         <v>990</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>260</v>
       </c>
       <c r="I3" t="n">
-        <v>1.12</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>12.5</v>
+        <v>140</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="P3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>21</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -865,7 +865,7 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,46 +874,46 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>870</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>12:20:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S4" t="n">
         <v>5.4</v>
       </c>
-      <c r="G4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
         <v>7</v>
       </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="n">
         <v>11</v>
       </c>
-      <c r="AE4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>48</v>
-      </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1.96</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
         <v>18</v>
       </c>
-      <c r="Y5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>260</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>10.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>11.5</v>
       </c>
       <c r="H6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO6" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>1.19</v>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>19.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>9.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>23</v>
       </c>
-      <c r="AB7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="AJ7" t="n">
-        <v>190</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>2.86</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1.36</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="V8" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>960</v>
-      </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>420</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>12.5</v>
       </c>
       <c r="AL8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO8" t="n">
         <v>110</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.18</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
         <v>21</v>
       </c>
-      <c r="J9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN9" t="n">
         <v>23</v>
       </c>
-      <c r="AD9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2.98</v>
-      </c>
       <c r="AO9" t="n">
-        <v>370</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>2.96</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>9.6</v>
+        <v>2.92</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.99</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>1.96</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>50</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>60</v>
       </c>
-      <c r="Z10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>320</v>
-      </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.85</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.94</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>9.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.14</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO13" t="n">
         <v>16</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="T14" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>44</v>
       </c>
-      <c r="Y14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AF14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
         <v>17</v>
       </c>
-      <c r="AE14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18</v>
-      </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.25</v>
@@ -2446,88 +2446,88 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AJ15" t="n">
         <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.15</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W17" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51</v>
+        <v>2.54</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
         <v>7.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X18" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>460</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
         <v>65</v>
       </c>
-      <c r="AA18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
-      </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.8</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
         <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>7.2</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="n">
-        <v>44</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.59</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>2.24</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>8.199999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
         <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>2.56</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
         <v>13</v>
       </c>
-      <c r="Y21" t="n">
-        <v>21</v>
-      </c>
       <c r="Z21" t="n">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="n">
         <v>19.5</v>
       </c>
-      <c r="AL21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO21" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.56</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.14</v>
       </c>
       <c r="X22" t="n">
         <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>2.64</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK23" t="n">
         <v>48</v>
       </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>24</v>
-      </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="M24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.11</v>
       </c>
-      <c r="N24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
         <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AC24" t="n">
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.15</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W25" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
         <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL25" t="n">
         <v>48</v>
       </c>
-      <c r="AL25" t="n">
-        <v>75</v>
-      </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="K26" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="M26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="O26" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="P26" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="X26" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK26" t="n">
         <v>36</v>
       </c>
-      <c r="AI26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
         <v>80</v>
       </c>
-      <c r="AK26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>500</v>
-      </c>
       <c r="AM26" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.62</v>
+        <v>1.41</v>
       </c>
       <c r="G27" t="n">
-        <v>2.64</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15</v>
+        <v>10.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W27" t="n">
         <v>3.35</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AH27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="n">
         <v>55</v>
       </c>
-      <c r="AB27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>48</v>
-      </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2.42</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.15</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB28" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>12</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO28" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,261 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="G29" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="H29" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>27</v>
       </c>
-      <c r="Z29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>38</v>
-      </c>
       <c r="AI29" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>10.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.35</v>
+        <v>2.8</v>
       </c>
       <c r="U2" t="n">
-        <v>3.15</v>
+        <v>1.51</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>650</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>880</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>650</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.02</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>260</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.21</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,88 +826,88 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>8.199999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.56</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>2.88</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="W3" t="n">
-        <v>55</v>
+        <v>1.05</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1000</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1000</v>
       </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AK3" t="n">
-        <v>12.5</v>
+        <v>280</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.02</v>
+        <v>420</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:20:45</t>
+          <t>14:30:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>5.4</v>
+        <v>1.92</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.95</v>
+        <v>4.3</v>
       </c>
       <c r="X4" t="n">
-        <v>9.800000000000001</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>870</v>
       </c>
       <c r="AI4" t="n">
         <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
         <v>30</v>
       </c>
-      <c r="AL4" t="n">
-        <v>75</v>
-      </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>3.95</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>17.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>350</v>
       </c>
       <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="n">
         <v>22</v>
       </c>
-      <c r="AB5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>440</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>7.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>510</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>3.45</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.5</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X6" t="n">
         <v>11.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X6" t="n">
-        <v>36</v>
-      </c>
       <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="AB6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.17</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1.19</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>19.5</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
-        <v>9.4</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.5</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z7" t="n">
-        <v>220</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.199999999999999</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.86</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
-        <v>370</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1.32</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="n">
         <v>11</v>
       </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
         <v>80</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>85</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.45</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>1.92</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>46</v>
-      </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="V10" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO10" t="n">
         <v>36</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.06</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>2.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
         <v>46</v>
       </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AN11" t="n">
         <v>20</v>
       </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>13</v>
-      </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="T12" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="U12" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
         <v>24</v>
       </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.28</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.98</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>2.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.58</v>
+        <v>5.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
+        <v>460</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>46</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>2.08</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="V15" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>2.36</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>19</v>
       </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AK15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
         <v>60</v>
       </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>42</v>
-      </c>
       <c r="AN15" t="n">
-        <v>17.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB16" t="n">
         <v>6.8</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X16" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.2</v>
+        <v>16.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.18</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="AF17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>990</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.7</v>
+        <v>18.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="X18" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="H19" t="n">
-        <v>5.9</v>
+        <v>2.94</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>2.98</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC19" t="n">
         <v>7</v>
       </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>2.98</v>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="O20" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z20" t="n">
         <v>15</v>
       </c>
-      <c r="Z20" t="n">
-        <v>46</v>
-      </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC20" t="n">
         <v>6.6</v>
       </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="G21" t="n">
-        <v>2.24</v>
+        <v>2.76</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3.85</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.14</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="S21" t="n">
-        <v>3.95</v>
+        <v>9.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK21" t="n">
         <v>65</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN21" t="n">
-        <v>19.5</v>
+        <v>210</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,39 +3353,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3397,34 +3397,34 @@
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
         <v>2.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
         <v>19</v>
@@ -3433,7 +3433,7 @@
         <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
@@ -3442,43 +3442,43 @@
         <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3.15</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="U23" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="n">
         <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>1.39</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.65</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.12</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.87</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.34</v>
+        <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>9.4</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="U24" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>3.5</v>
       </c>
       <c r="X24" t="n">
-        <v>5.8</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
         <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="AN24" t="n">
-        <v>110</v>
+        <v>8.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="G25" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.43</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB25" t="n">
         <v>10</v>
       </c>
-      <c r="Z25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9</v>
-      </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
         <v>50</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AO25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,530 +3893,125 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>1.51</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="O26" t="n">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB26" t="n">
         <v>7.4</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Gil Vicente</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Union Magdalena</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Bogota</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO29" t="n">
         <v>260</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>1.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>330</v>
       </c>
       <c r="I3" t="n">
-        <v>1.21</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.05</v>
+        <v>50</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>280</v>
+        <v>1.64</v>
       </c>
       <c r="AL3" t="n">
-        <v>180</v>
+        <v>7.6</v>
       </c>
       <c r="AM3" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>420</v>
+        <v>5.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:15</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>85</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>1.18</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="W4" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>44</v>
+        <v>1.38</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>870</v>
+        <v>8.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:19</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>9.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.05</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W5" t="n">
-        <v>17.5</v>
+        <v>4.1</v>
       </c>
       <c r="X5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10</v>
       </c>
-      <c r="AC5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
       <c r="AH5" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.45</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>1.16</v>
       </c>
       <c r="H6" t="n">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>400</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN6" t="n">
         <v>4.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21</v>
-      </c>
       <c r="AO6" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>50</v>
-      </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>9.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>1.11</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>3.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>7.6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN8" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>15</v>
-      </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>1.92</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>12</v>
       </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3.9</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>3.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
         <v>38</v>
       </c>
-      <c r="AA10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.93</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.24</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="V11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.6</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X11" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>4.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>420</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
-        <v>13.5</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>1.09</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>75</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
         <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>24</v>
-      </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.47</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.74</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>2.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="Y13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>460</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>470</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK13" t="n">
         <v>36</v>
       </c>
-      <c r="Z13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N14" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="P14" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S14" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.18</v>
+        <v>2.54</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="AJ14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC15" t="n">
         <v>6.8</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X15" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
         <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>55</v>
       </c>
-      <c r="AA16" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO16" t="n">
         <v>55</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>2.94</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="O17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.51</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W17" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
         <v>46</v>
       </c>
-      <c r="AA17" t="n">
-        <v>900</v>
-      </c>
       <c r="AB17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC17" t="n">
         <v>6.6</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.33</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>44</v>
       </c>
-      <c r="AF18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AK18" t="n">
         <v>55</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>25</v>
-      </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="AN18" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="H19" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>38</v>
       </c>
-      <c r="AF19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>46</v>
-      </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M20" t="n">
         <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.72</v>
+        <v>1.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>12.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.72</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.85</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9.4</v>
-      </c>
       <c r="T21" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="U21" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>3.55</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.4</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AA21" t="n">
-        <v>260</v>
+        <v>670</v>
       </c>
       <c r="AB21" t="n">
         <v>6.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AE21" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>38</v>
       </c>
       <c r="AI21" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="AN21" t="n">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>600</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.62</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.44</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK22" t="n">
         <v>50</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>32</v>
-      </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,531 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>1.54</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>2.66</v>
       </c>
       <c r="X23" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.4</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="AA23" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>260</v>
+        <v>790</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Gil Vicente</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>740</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Boca Juniors de Cali</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Union Magdalena</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Bogota</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Union Magdalena</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Bogota</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>560</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>360</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
